--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_10_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1148966.931636498</v>
+        <v>-1149744.651596642</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681855</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.42480023313186</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="G8" t="n">
         <v>14.85476540383092</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12.42480023313186</v>
+      </c>
+      <c r="X8" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>13.08407736769427</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="I9" t="n">
         <v>14.85476540383092</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13.08407736769428</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13.16443305369184</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>13.16443305369185</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.9000707397747</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>245.1687564273223</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>261.3016965036671</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>285.4775242289205</v>
       </c>
       <c r="G11" t="n">
-        <v>292.5171841359672</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>36.78311369474169</v>
+        <v>210.9893943376807</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.17081002677313</v>
+        <v>72.17081002677311</v>
       </c>
       <c r="T11" t="n">
-        <v>98.86704101869468</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.6197249636246</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.716882270899</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>58.70216120326795</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.0452598795491</v>
       </c>
       <c r="Y11" t="n">
         <v>264.8707324996155</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>165.3721256103448</v>
+        <v>43.55578635872449</v>
       </c>
       <c r="C12" t="n">
-        <v>79.36534198154983</v>
+        <v>49.20924467578065</v>
       </c>
       <c r="D12" t="n">
-        <v>24.29608432302524</v>
+        <v>24.29608432302523</v>
       </c>
       <c r="E12" t="n">
-        <v>34.21709445555351</v>
+        <v>78.89844860603033</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
@@ -1464,10 +1464,10 @@
         <v>135.7443211394645</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7690342835265</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.90144186553559</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.37939374214915</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>163.7813718323031</v>
       </c>
       <c r="T12" t="n">
-        <v>75.442074010745</v>
+        <v>197.2584132623653</v>
       </c>
       <c r="U12" t="n">
-        <v>102.8224898507403</v>
+        <v>102.8224898507402</v>
       </c>
       <c r="V12" t="n">
         <v>110.0923917880348</v>
@@ -1512,10 +1512,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.64529035685793</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.8548121669657</v>
+        <v>81.85481216696569</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.26735223906348</v>
+        <v>58.26735223906347</v>
       </c>
       <c r="C13" t="n">
-        <v>45.52021367958201</v>
+        <v>45.520213679582</v>
       </c>
       <c r="D13" t="n">
-        <v>15.80629700500029</v>
+        <v>27.18922726289902</v>
       </c>
       <c r="E13" t="n">
-        <v>25.15828492157885</v>
+        <v>25.15828492157884</v>
       </c>
       <c r="F13" t="n">
-        <v>24.34268215818418</v>
+        <v>24.34268215818416</v>
       </c>
       <c r="G13" t="n">
-        <v>45.83943845439825</v>
+        <v>45.83943845439823</v>
       </c>
       <c r="H13" t="n">
-        <v>37.73893841948264</v>
+        <v>37.73893841948261</v>
       </c>
       <c r="I13" t="n">
-        <v>24.9108663704374</v>
+        <v>24.91086637043738</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.06180556046523</v>
+        <v>29.67887530256558</v>
       </c>
       <c r="S13" t="n">
-        <v>96.46637574089709</v>
+        <v>96.46637574089708</v>
       </c>
       <c r="T13" t="n">
         <v>105.5171151460504</v>
@@ -1594,7 +1594,7 @@
         <v>104.3240206806889</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.9323346161479</v>
+        <v>96.93233461614788</v>
       </c>
     </row>
     <row r="14">
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>245.1687564273224</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.7883935029781</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>218.2976981357902</v>
+        <v>184.0635460882359</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.4775242289205</v>
       </c>
       <c r="G14" t="n">
-        <v>292.5171841359673</v>
+        <v>292.5171841359672</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.17081002677318</v>
+        <v>72.17081002677311</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.6197249636247</v>
+        <v>129.6197249636246</v>
       </c>
       <c r="V14" t="n">
-        <v>206.7168822708991</v>
+        <v>206.716882270899</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.7137777489343</v>
       </c>
       <c r="X14" t="n">
         <v>249.0452598795491</v>
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.55578635872449</v>
       </c>
       <c r="C15" t="n">
-        <v>49.20924467578072</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>24.2960843230253</v>
+        <v>24.29608432302523</v>
       </c>
       <c r="E15" t="n">
-        <v>78.89844860602966</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -1701,7 +1701,7 @@
         <v>135.7443211394645</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7690342835265</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>76.90144186553559</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>30.63404918238316</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7813718323031</v>
+        <v>41.96503258068274</v>
       </c>
       <c r="T15" t="n">
-        <v>75.44207401074506</v>
+        <v>197.2584132623653</v>
       </c>
       <c r="U15" t="n">
-        <v>102.8224898507403</v>
+        <v>102.8224898507402</v>
       </c>
       <c r="V15" t="n">
-        <v>110.0923917880349</v>
+        <v>110.0923917880348</v>
       </c>
       <c r="W15" t="n">
-        <v>128.1730074983798</v>
+        <v>128.1730074983797</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>81.85481216696576</v>
+        <v>81.85481216696569</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.26735223906354</v>
+        <v>58.26735223906347</v>
       </c>
       <c r="C16" t="n">
-        <v>45.52021367958207</v>
+        <v>45.520213679582</v>
       </c>
       <c r="D16" t="n">
-        <v>27.1892272628991</v>
+        <v>15.80629700500016</v>
       </c>
       <c r="E16" t="n">
-        <v>25.15828492157891</v>
+        <v>25.15828492157884</v>
       </c>
       <c r="F16" t="n">
-        <v>24.34268215818423</v>
+        <v>24.34268215818416</v>
       </c>
       <c r="G16" t="n">
-        <v>45.83943845439831</v>
+        <v>45.83943845439823</v>
       </c>
       <c r="H16" t="n">
-        <v>37.73893841948269</v>
+        <v>37.73893841948261</v>
       </c>
       <c r="I16" t="n">
-        <v>24.91086637043745</v>
+        <v>24.91086637043738</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.06180556046529</v>
+        <v>41.06180556046523</v>
       </c>
       <c r="S16" t="n">
-        <v>96.46637574089715</v>
+        <v>96.46637574089708</v>
       </c>
       <c r="T16" t="n">
-        <v>94.1341848881496</v>
+        <v>105.5171151460504</v>
       </c>
       <c r="U16" t="n">
         <v>164.2231777999481</v>
       </c>
       <c r="V16" t="n">
-        <v>131.1200118153189</v>
+        <v>131.1200118153188</v>
       </c>
       <c r="W16" t="n">
-        <v>164.2762376357953</v>
+        <v>164.2762376357952</v>
       </c>
       <c r="X16" t="n">
-        <v>104.324020680689</v>
+        <v>104.3240206806889</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.93233461614795</v>
+        <v>96.93233461614788</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>27.72100097228883</v>
       </c>
       <c r="V17" t="n">
-        <v>104.8181582795633</v>
+        <v>104.8181582795632</v>
       </c>
       <c r="W17" t="n">
         <v>126.8150537575985</v>
@@ -1929,10 +1929,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>118.8265178472143</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>132.2774853302432</v>
+        <v>0.9237658594044558</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.30839138465164</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.18219819322691</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>67.38248473992589</v>
+        <v>3.618391154714608</v>
       </c>
       <c r="U19" t="n">
         <v>62.3244538086123</v>
@@ -2068,7 +2068,7 @@
         <v>2.425296689353132</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>196.2546831630897</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160.0013467484389</v>
+        <v>160.0013467484387</v>
       </c>
       <c r="C20" t="n">
         <v>143.2700324359865</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7690342835265</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.90144186553559</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.37939374214915</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7813718323031</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2584132623653</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9237658594044558</v>
+        <v>224.6388291023606</v>
       </c>
       <c r="V21" t="n">
-        <v>207.2290168033204</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>115.0269960464222</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6557777060186</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.618391154714608</v>
+        <v>199.8730743178044</v>
       </c>
       <c r="U22" t="n">
         <v>62.3244538086123</v>
       </c>
       <c r="V22" t="n">
-        <v>57.82019328105425</v>
+        <v>29.22128782398303</v>
       </c>
       <c r="W22" t="n">
         <v>62.37751364445941</v>
@@ -2403,13 +2403,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>51.14488831143173</v>
+        <v>135.7443211394645</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6388291023606</v>
+        <v>0.9237658594044558</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>71.48469566385549</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.618391154714608</v>
+        <v>199.8730743178044</v>
       </c>
       <c r="U25" t="n">
         <v>62.3244538086123</v>
@@ -2539,7 +2539,7 @@
         <v>62.37751364445941</v>
       </c>
       <c r="X25" t="n">
-        <v>198.6799798524429</v>
+        <v>2.425296689353132</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>224.6177833122167</v>
       </c>
       <c r="D26" t="n">
-        <v>214.2374203878725</v>
+        <v>214.2374203878724</v>
       </c>
       <c r="E26" t="n">
         <v>240.7507233885615</v>
@@ -2570,10 +2570,10 @@
         <v>271.9662110208616</v>
       </c>
       <c r="H26" t="n">
-        <v>190.4384212225751</v>
+        <v>190.438421222575</v>
       </c>
       <c r="I26" t="n">
-        <v>42.7618126701756</v>
+        <v>42.76181267017554</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.61983691166753</v>
+        <v>51.61983691166748</v>
       </c>
       <c r="T26" t="n">
-        <v>78.3160679035891</v>
+        <v>78.31606790358903</v>
       </c>
       <c r="U26" t="n">
         <v>109.068751848519</v>
@@ -2615,13 +2615,13 @@
         <v>186.1659091557934</v>
       </c>
       <c r="W26" t="n">
-        <v>208.1628046338287</v>
+        <v>208.1628046338286</v>
       </c>
       <c r="X26" t="n">
-        <v>228.4942867644435</v>
+        <v>228.4942867644434</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.3197593845099</v>
+        <v>244.3197593845098</v>
       </c>
     </row>
     <row r="27">
@@ -2640,13 +2640,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>13.66612134044792</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>1.138919716823381</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>6.254298340980306</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.37939374214915</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.7813718323031</v>
+        <v>105.0477515487068</v>
       </c>
       <c r="T27" t="n">
-        <v>197.2584132623653</v>
+        <v>54.89110089563936</v>
       </c>
       <c r="U27" t="n">
         <v>224.6388291023606</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.71637912395789</v>
+        <v>37.71637912395784</v>
       </c>
       <c r="C28" t="n">
-        <v>24.96924056447642</v>
+        <v>24.96924056447637</v>
       </c>
       <c r="D28" t="n">
-        <v>6.638254147793447</v>
+        <v>6.63825414779339</v>
       </c>
       <c r="E28" t="n">
-        <v>4.607311806473263</v>
+        <v>4.607311806473206</v>
       </c>
       <c r="F28" t="n">
-        <v>3.791709043078583</v>
+        <v>3.791709043078527</v>
       </c>
       <c r="G28" t="n">
-        <v>25.28846533929265</v>
+        <v>25.2884653392926</v>
       </c>
       <c r="H28" t="n">
-        <v>17.18796530437704</v>
+        <v>17.18796530437699</v>
       </c>
       <c r="I28" t="n">
-        <v>4.359893255331806</v>
+        <v>4.359893255331749</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.51083244535964</v>
+        <v>20.51083244535958</v>
       </c>
       <c r="S28" t="n">
-        <v>75.9154026257915</v>
+        <v>75.91540262579144</v>
       </c>
       <c r="T28" t="n">
-        <v>84.96614203094481</v>
+        <v>84.96614203094475</v>
       </c>
       <c r="U28" t="n">
         <v>143.6722046848425</v>
@@ -2776,10 +2776,10 @@
         <v>143.7252645206896</v>
       </c>
       <c r="X28" t="n">
-        <v>83.77304756558334</v>
+        <v>83.77304756558328</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.38136150104231</v>
+        <v>76.38136150104225</v>
       </c>
     </row>
     <row r="29">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>23.00481324361886</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>28.65827156067502</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>3.745111207919592</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.66612134044786</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7443211394645</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7690342835265</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>47.47556765144123</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>77.37939374214915</v>
       </c>
       <c r="S30" t="n">
-        <v>27.66835780655757</v>
+        <v>163.7813718323031</v>
       </c>
       <c r="T30" t="n">
-        <v>54.89110089563936</v>
+        <v>197.2584132623653</v>
       </c>
       <c r="U30" t="n">
         <v>224.6388291023606</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.5058727193899</v>
+        <v>237.5058727193901</v>
       </c>
       <c r="C32" t="n">
-        <v>220.7745584069375</v>
+        <v>220.7745584069376</v>
       </c>
       <c r="D32" t="n">
-        <v>210.3941954825933</v>
+        <v>210.3941954825934</v>
       </c>
       <c r="E32" t="n">
-        <v>236.9074984832824</v>
+        <v>236.9074984832825</v>
       </c>
       <c r="F32" t="n">
-        <v>261.0833262085357</v>
+        <v>261.0833262085358</v>
       </c>
       <c r="G32" t="n">
-        <v>268.1229861155824</v>
+        <v>268.1229861155825</v>
       </c>
       <c r="H32" t="n">
-        <v>186.5951963172959</v>
+        <v>186.595196317296</v>
       </c>
       <c r="I32" t="n">
-        <v>38.91858776489642</v>
+        <v>38.91858776489653</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.77661200638835</v>
+        <v>47.77661200638846</v>
       </c>
       <c r="T32" t="n">
-        <v>74.47284299830991</v>
+        <v>74.47284299831003</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2255269432399</v>
+        <v>105.22552694324</v>
       </c>
       <c r="V32" t="n">
-        <v>182.3226842505142</v>
+        <v>182.3226842505144</v>
       </c>
       <c r="W32" t="n">
-        <v>204.3195797285495</v>
+        <v>204.3195797285496</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6510618591643</v>
+        <v>224.6510618591644</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4765344792307</v>
+        <v>240.4765344792308</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3111,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>34.22986071924736</v>
+        <v>9.822896435168843</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7443211394645</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7690342835265</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.37939374214915</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>17.57083456029797</v>
+        <v>163.7813718323031</v>
       </c>
       <c r="T33" t="n">
-        <v>197.2584132623653</v>
+        <v>180.7114071751667</v>
       </c>
       <c r="U33" t="n">
-        <v>78.42829183035548</v>
+        <v>224.6388291023606</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.87315421867871</v>
+        <v>33.87315421867882</v>
       </c>
       <c r="C34" t="n">
-        <v>21.12601565919724</v>
+        <v>21.12601565919735</v>
       </c>
       <c r="D34" t="n">
-        <v>2.795029242514261</v>
+        <v>2.795029242514374</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7640869011940765</v>
+        <v>0.7640869011941902</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>21.44524043401347</v>
+        <v>21.44524043401358</v>
       </c>
       <c r="H34" t="n">
-        <v>13.34474039909786</v>
+        <v>13.34474039909797</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5166683500526199</v>
+        <v>0.5166683500527336</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.66760754008045</v>
+        <v>16.66760754008057</v>
       </c>
       <c r="S34" t="n">
-        <v>72.07217772051231</v>
+        <v>72.07217772051243</v>
       </c>
       <c r="T34" t="n">
-        <v>81.12291712566562</v>
+        <v>81.12291712566574</v>
       </c>
       <c r="U34" t="n">
-        <v>139.8289797795633</v>
+        <v>139.8289797795634</v>
       </c>
       <c r="V34" t="n">
-        <v>106.7258137949341</v>
+        <v>106.7258137949342</v>
       </c>
       <c r="W34" t="n">
-        <v>139.8820396154104</v>
+        <v>139.8820396154105</v>
       </c>
       <c r="X34" t="n">
-        <v>79.92982266030415</v>
+        <v>79.92982266030427</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.53813659576312</v>
+        <v>72.53813659576323</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>164.3963285731309</v>
       </c>
       <c r="E35" t="n">
-        <v>190.9096315738199</v>
+        <v>190.90963157382</v>
       </c>
       <c r="F35" t="n">
         <v>215.0854592990733</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.778745096925917</v>
+        <v>1.778745096925949</v>
       </c>
       <c r="T35" t="n">
-        <v>28.47497608884748</v>
+        <v>28.4749760888475</v>
       </c>
       <c r="U35" t="n">
-        <v>59.22766003377743</v>
+        <v>59.22766003377745</v>
       </c>
       <c r="V35" t="n">
         <v>136.3248173410518</v>
@@ -3354,16 +3354,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>135.7443211394645</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7690342835265</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.20449837977538</v>
+        <v>76.90144186553559</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>77.37939374214915</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7813718323031</v>
       </c>
       <c r="T36" t="n">
-        <v>5.050009080897802</v>
+        <v>5.05000908089783</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6388291023606</v>
+        <v>69.22737596990564</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3408,7 +3408,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>12.25322542701073</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.07431081104989</v>
+        <v>26.07431081104992</v>
       </c>
       <c r="T37" t="n">
-        <v>35.1250502162032</v>
+        <v>35.12505021620323</v>
       </c>
       <c r="U37" t="n">
-        <v>93.8311128701009</v>
+        <v>93.83111287010092</v>
       </c>
       <c r="V37" t="n">
-        <v>60.72794688547162</v>
+        <v>60.72794688547165</v>
       </c>
       <c r="W37" t="n">
-        <v>93.884172705948</v>
+        <v>93.88417270594803</v>
       </c>
       <c r="X37" t="n">
-        <v>33.93195575084172</v>
+        <v>33.93195575084175</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.54026968630069</v>
+        <v>26.54026968630072</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>164.3963285731309</v>
       </c>
       <c r="E38" t="n">
-        <v>190.90963157382</v>
+        <v>190.9096315738199</v>
       </c>
       <c r="F38" t="n">
         <v>215.0854592990733</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.778745096925945</v>
+        <v>1.778745096925917</v>
       </c>
       <c r="T38" t="n">
-        <v>28.47497608884751</v>
+        <v>28.47497608884748</v>
       </c>
       <c r="U38" t="n">
-        <v>59.22766003377745</v>
+        <v>59.22766003377743</v>
       </c>
       <c r="V38" t="n">
         <v>136.3248173410518</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.90144186553559</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>77.37939374214915</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>77.50944962129861</v>
       </c>
       <c r="T39" t="n">
-        <v>5.658016836659908</v>
+        <v>5.050009080897802</v>
       </c>
       <c r="U39" t="n">
         <v>224.6388291023606</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>26.07431081104992</v>
+        <v>26.07431081104989</v>
       </c>
       <c r="T40" t="n">
-        <v>35.12505021620323</v>
+        <v>35.1250502162032</v>
       </c>
       <c r="U40" t="n">
-        <v>93.83111287010092</v>
+        <v>93.8311128701009</v>
       </c>
       <c r="V40" t="n">
-        <v>60.72794688547165</v>
+        <v>60.72794688547162</v>
       </c>
       <c r="W40" t="n">
-        <v>93.88417270594803</v>
+        <v>93.884172705948</v>
       </c>
       <c r="X40" t="n">
-        <v>33.93195575084175</v>
+        <v>33.93195575084172</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.54026968630072</v>
+        <v>26.54026968630069</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>191.5080058099276</v>
+        <v>191.5080058099275</v>
       </c>
       <c r="C41" t="n">
-        <v>174.7766914974752</v>
+        <v>174.7766914974751</v>
       </c>
       <c r="D41" t="n">
-        <v>164.396328573131</v>
+        <v>164.3963285731309</v>
       </c>
       <c r="E41" t="n">
         <v>190.90963157382</v>
       </c>
       <c r="F41" t="n">
-        <v>215.0854592990734</v>
+        <v>215.0854592990733</v>
       </c>
       <c r="G41" t="n">
-        <v>222.1251192061201</v>
+        <v>222.12511920612</v>
       </c>
       <c r="H41" t="n">
-        <v>140.5973294078336</v>
+        <v>140.5973294078335</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.778745096926031</v>
+        <v>1.778745096925945</v>
       </c>
       <c r="T41" t="n">
-        <v>28.4749760888476</v>
+        <v>28.47497608884751</v>
       </c>
       <c r="U41" t="n">
-        <v>59.22766003377754</v>
+        <v>59.22766003377745</v>
       </c>
       <c r="V41" t="n">
-        <v>136.3248173410519</v>
+        <v>136.3248173410518</v>
       </c>
       <c r="W41" t="n">
-        <v>158.3217128190872</v>
+        <v>158.3217128190871</v>
       </c>
       <c r="X41" t="n">
-        <v>178.653194949702</v>
+        <v>178.6531949497019</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.4786675697684</v>
+        <v>194.4786675697683</v>
       </c>
     </row>
     <row r="42">
@@ -3819,10 +3819,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.90144186553559</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>39.13563298618865</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7813718323031</v>
       </c>
       <c r="T42" t="n">
-        <v>159.9388524443457</v>
+        <v>197.2584132623653</v>
       </c>
       <c r="U42" t="n">
         <v>224.6388291023606</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>26.07431081105</v>
+        <v>26.07431081104992</v>
       </c>
       <c r="T43" t="n">
-        <v>35.12505021620331</v>
+        <v>35.12505021620323</v>
       </c>
       <c r="U43" t="n">
-        <v>93.83111287010101</v>
+        <v>93.83111287010092</v>
       </c>
       <c r="V43" t="n">
-        <v>60.72794688547174</v>
+        <v>60.72794688547165</v>
       </c>
       <c r="W43" t="n">
-        <v>93.88417270594812</v>
+        <v>93.88417270594803</v>
       </c>
       <c r="X43" t="n">
-        <v>33.93195575084184</v>
+        <v>33.93195575084175</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.5402696863008</v>
+        <v>26.54026968630072</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>191.5080058099277</v>
+        <v>191.5080058099276</v>
       </c>
       <c r="C44" t="n">
         <v>174.7766914974752</v>
       </c>
       <c r="D44" t="n">
-        <v>164.396328573131</v>
+        <v>164.3963285731309</v>
       </c>
       <c r="E44" t="n">
-        <v>190.9096315738201</v>
+        <v>190.90963157382</v>
       </c>
       <c r="F44" t="n">
         <v>215.0854592990734</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1251192061202</v>
+        <v>222.1251192061201</v>
       </c>
       <c r="H44" t="n">
-        <v>140.5973294078336</v>
+        <v>140.5973294078335</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.778745096926063</v>
+        <v>1.778745096926007</v>
       </c>
       <c r="T44" t="n">
-        <v>28.47497608884762</v>
+        <v>28.47497608884756</v>
       </c>
       <c r="U44" t="n">
-        <v>59.22766003377757</v>
+        <v>59.22766003377751</v>
       </c>
       <c r="V44" t="n">
-        <v>136.324817341052</v>
+        <v>136.3248173410519</v>
       </c>
       <c r="W44" t="n">
-        <v>158.3217128190872</v>
+        <v>158.3217128190871</v>
       </c>
       <c r="X44" t="n">
-        <v>178.653194949702</v>
+        <v>178.6531949497019</v>
       </c>
       <c r="Y44" t="n">
         <v>194.4786675697684</v>
@@ -4065,7 +4065,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.1866712655296</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2584132623653</v>
+        <v>159.9388524443457</v>
       </c>
       <c r="U45" t="n">
         <v>224.6388291023606</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>26.07431081105003</v>
+        <v>26.07431081104998</v>
       </c>
       <c r="T46" t="n">
-        <v>35.12505021620334</v>
+        <v>35.12505021620328</v>
       </c>
       <c r="U46" t="n">
-        <v>93.83111287010104</v>
+        <v>93.83111287010098</v>
       </c>
       <c r="V46" t="n">
-        <v>60.72794688547177</v>
+        <v>60.72794688547171</v>
       </c>
       <c r="W46" t="n">
-        <v>93.88417270594815</v>
+        <v>93.88417270594809</v>
       </c>
       <c r="X46" t="n">
-        <v>33.93195575084187</v>
+        <v>33.93195575084181</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.54026968630083</v>
+        <v>26.54026968630077</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.41424807610054</v>
+        <v>31.86394481031078</v>
       </c>
       <c r="C8" t="n">
-        <v>44.41424807610054</v>
+        <v>31.86394481031078</v>
       </c>
       <c r="D8" t="n">
-        <v>44.41424807610054</v>
+        <v>31.86394481031078</v>
       </c>
       <c r="E8" t="n">
-        <v>44.41424807610054</v>
+        <v>31.86394481031078</v>
       </c>
       <c r="F8" t="n">
-        <v>31.86394481031078</v>
+        <v>16.85913127108763</v>
       </c>
       <c r="G8" t="n">
-        <v>16.85913127108763</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="H8" t="n">
-        <v>16.85913127108763</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="I8" t="n">
         <v>1.85431773186447</v>
@@ -4805,49 +4805,49 @@
         <v>1.188381232306474</v>
       </c>
       <c r="K8" t="n">
-        <v>15.89459898209909</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="L8" t="n">
-        <v>30.6008167318917</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="M8" t="n">
-        <v>45.30703448168432</v>
+        <v>11.28146113382036</v>
       </c>
       <c r="N8" t="n">
-        <v>59.4190616153237</v>
+        <v>25.98767888361298</v>
       </c>
       <c r="O8" t="n">
-        <v>59.4190616153237</v>
+        <v>40.69389663340559</v>
       </c>
       <c r="P8" t="n">
-        <v>59.4190616153237</v>
+        <v>55.40011438319821</v>
       </c>
       <c r="Q8" t="n">
         <v>59.4190616153237</v>
       </c>
       <c r="R8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="S8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="T8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="W8" t="n">
-        <v>44.41424807610054</v>
+        <v>46.86875834953394</v>
       </c>
       <c r="X8" t="n">
-        <v>44.41424807610054</v>
+        <v>31.86394481031078</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.41424807610054</v>
+        <v>31.86394481031078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46.20282184997595</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.20282184997595</v>
+      </c>
+      <c r="E9" t="n">
+        <v>46.20282184997595</v>
+      </c>
+      <c r="F9" t="n">
+        <v>46.20282184997595</v>
+      </c>
+      <c r="G9" t="n">
         <v>31.19800831075279</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16.19319477152963</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16.19319477152963</v>
       </c>
       <c r="H9" t="n">
         <v>16.19319477152963</v>
@@ -4890,13 +4890,13 @@
         <v>30.00662611573847</v>
       </c>
       <c r="M9" t="n">
+        <v>30.00662611573847</v>
+      </c>
+      <c r="N9" t="n">
+        <v>30.00662611573847</v>
+      </c>
+      <c r="O9" t="n">
         <v>44.71284386553108</v>
-      </c>
-      <c r="N9" t="n">
-        <v>59.4190616153237</v>
-      </c>
-      <c r="O9" t="n">
-        <v>59.4190616153237</v>
       </c>
       <c r="P9" t="n">
         <v>59.4190616153237</v>
@@ -4905,28 +4905,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="S9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="T9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="W9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="X9" t="n">
-        <v>31.19800831075279</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.19800831075279</v>
+        <v>59.4190616153237</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="C10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="D10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="E10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="F10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="G10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="H10" t="n">
-        <v>46.12165449038244</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="I10" t="n">
-        <v>31.11684095115928</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="J10" t="n">
         <v>16.11202741193612</v>
@@ -4981,31 +4981,31 @@
         <v>59.4190616153237</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="R10" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="S10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="T10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="U10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="V10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="W10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="X10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.11202741193612</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>918.9078771169743</v>
+        <v>783.1060149256889</v>
       </c>
       <c r="C11" t="n">
-        <v>918.9078771169743</v>
+        <v>535.4608064132422</v>
       </c>
       <c r="D11" t="n">
-        <v>918.9078771169743</v>
+        <v>535.4608064132422</v>
       </c>
       <c r="E11" t="n">
-        <v>654.9667695375125</v>
+        <v>535.4608064132422</v>
       </c>
       <c r="F11" t="n">
-        <v>366.6056339527443</v>
+        <v>247.0996708284737</v>
       </c>
       <c r="G11" t="n">
-        <v>71.13373078510094</v>
+        <v>247.0996708284737</v>
       </c>
       <c r="H11" t="n">
         <v>33.97907048738206</v>
@@ -5039,16 +5039,16 @@
         <v>33.97907048738206</v>
       </c>
       <c r="J11" t="n">
-        <v>77.12375305453952</v>
+        <v>77.12375305453958</v>
       </c>
       <c r="K11" t="n">
-        <v>264.0630408491238</v>
+        <v>264.0630408491237</v>
       </c>
       <c r="L11" t="n">
         <v>547.9468357840296</v>
       </c>
       <c r="M11" t="n">
-        <v>879.0345500584717</v>
+        <v>879.0345500584716</v>
       </c>
       <c r="N11" t="n">
         <v>1199.962434699153</v>
@@ -5069,22 +5069,22 @@
         <v>1626.053716261251</v>
       </c>
       <c r="T11" t="n">
-        <v>1526.18801826257</v>
+        <v>1626.053716261251</v>
       </c>
       <c r="U11" t="n">
-        <v>1395.259003147797</v>
+        <v>1626.053716261251</v>
       </c>
       <c r="V11" t="n">
-        <v>1186.45407156103</v>
+        <v>1626.053716261251</v>
       </c>
       <c r="W11" t="n">
-        <v>1186.45407156103</v>
+        <v>1566.758603934718</v>
       </c>
       <c r="X11" t="n">
-        <v>1186.45407156103</v>
+        <v>1315.197735369517</v>
       </c>
       <c r="Y11" t="n">
-        <v>918.9078771169743</v>
+        <v>1047.651540925461</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455.3215694602533</v>
+        <v>656.5293805650712</v>
       </c>
       <c r="C12" t="n">
-        <v>375.1545573576777</v>
+        <v>606.8230728117574</v>
       </c>
       <c r="D12" t="n">
-        <v>350.6130580414905</v>
+        <v>582.2815734955702</v>
       </c>
       <c r="E12" t="n">
-        <v>316.0503363692143</v>
+        <v>502.5861708632164</v>
       </c>
       <c r="F12" t="n">
-        <v>171.0945463858311</v>
+        <v>357.6303808798332</v>
       </c>
       <c r="G12" t="n">
-        <v>33.97907048738206</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="H12" t="n">
-        <v>33.97907048738206</v>
+        <v>111.6572945939837</v>
       </c>
       <c r="I12" t="n">
         <v>33.97907048738206</v>
       </c>
       <c r="J12" t="n">
-        <v>67.45779303559702</v>
+        <v>67.45779303559701</v>
       </c>
       <c r="K12" t="n">
         <v>251.2838755152509</v>
       </c>
       <c r="L12" t="n">
-        <v>559.3103359199445</v>
+        <v>251.2838755152509</v>
       </c>
       <c r="M12" t="n">
-        <v>971.5628806174136</v>
+        <v>663.53642021272</v>
       </c>
       <c r="N12" t="n">
-        <v>1114.0891565886</v>
+        <v>1084.027417494073</v>
       </c>
       <c r="O12" t="n">
-        <v>1447.660030780802</v>
+        <v>1417.598291686275</v>
       </c>
       <c r="P12" t="n">
-        <v>1698.953524369103</v>
+        <v>1582.53141121715</v>
       </c>
       <c r="Q12" t="n">
         <v>1698.953524369103</v>
       </c>
       <c r="R12" t="n">
-        <v>1620.792520589154</v>
+        <v>1698.953524369103</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.356791465616</v>
+        <v>1533.517795245564</v>
       </c>
       <c r="T12" t="n">
-        <v>1379.152676303247</v>
+        <v>1334.266872758327</v>
       </c>
       <c r="U12" t="n">
-        <v>1275.291575443913</v>
+        <v>1230.405771898993</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.087139294383</v>
+        <v>1119.201335749463</v>
       </c>
       <c r="W12" t="n">
-        <v>911.5726476277167</v>
+        <v>866.6868440827965</v>
       </c>
       <c r="X12" t="n">
-        <v>705.0457490332942</v>
+        <v>783.206752813243</v>
       </c>
       <c r="Y12" t="n">
-        <v>622.3641205818137</v>
+        <v>700.5251243617626</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>255.5111119102746</v>
+        <v>267.0090212616876</v>
       </c>
       <c r="C13" t="n">
-        <v>209.531098092515</v>
+        <v>221.029007443928</v>
       </c>
       <c r="D13" t="n">
-        <v>193.5651415218076</v>
+        <v>193.5651415218078</v>
       </c>
       <c r="E13" t="n">
-        <v>168.1527325101118</v>
+        <v>168.152732510112</v>
       </c>
       <c r="F13" t="n">
-        <v>143.5641646735621</v>
+        <v>143.5641646735624</v>
       </c>
       <c r="G13" t="n">
-        <v>97.26170158831138</v>
+        <v>97.26170158831133</v>
       </c>
       <c r="H13" t="n">
-        <v>59.14156177065215</v>
+        <v>59.14156177065213</v>
       </c>
       <c r="I13" t="n">
         <v>33.97907048738206</v>
@@ -5206,7 +5206,7 @@
         <v>407.9548497235636</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5329219323836</v>
+        <v>614.5329219323837</v>
       </c>
       <c r="N13" t="n">
         <v>824.2078462753655</v>
@@ -5221,28 +5221,28 @@
         <v>1227.418618207623</v>
       </c>
       <c r="R13" t="n">
-        <v>1185.942046934425</v>
+        <v>1197.439956285839</v>
       </c>
       <c r="S13" t="n">
-        <v>1088.501263357762</v>
+        <v>1099.999172709175</v>
       </c>
       <c r="T13" t="n">
-        <v>981.9183187657916</v>
+        <v>993.4162281172052</v>
       </c>
       <c r="U13" t="n">
-        <v>816.0363209880669</v>
+        <v>827.5342303394798</v>
       </c>
       <c r="V13" t="n">
-        <v>683.5918646089569</v>
+        <v>695.0897739603698</v>
       </c>
       <c r="W13" t="n">
-        <v>517.6562710374466</v>
+        <v>529.1541803888596</v>
       </c>
       <c r="X13" t="n">
-        <v>412.278472370084</v>
+        <v>423.776381721497</v>
       </c>
       <c r="Y13" t="n">
-        <v>314.3670232628639</v>
+        <v>325.864932614277</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1034.758900994511</v>
+        <v>803.7348830662949</v>
       </c>
       <c r="C14" t="n">
-        <v>787.1136924820639</v>
+        <v>803.7348830662949</v>
       </c>
       <c r="D14" t="n">
-        <v>549.9536990447123</v>
+        <v>803.7348830662949</v>
       </c>
       <c r="E14" t="n">
-        <v>329.4509736550258</v>
+        <v>617.8121092397939</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4509736550258</v>
+        <v>329.4509736550257</v>
       </c>
       <c r="G14" t="n">
         <v>33.97907048738206</v>
@@ -5276,7 +5276,7 @@
         <v>33.97907048738206</v>
       </c>
       <c r="J14" t="n">
-        <v>77.12375305453963</v>
+        <v>77.12375305453969</v>
       </c>
       <c r="K14" t="n">
         <v>264.0630408491238</v>
@@ -5285,7 +5285,7 @@
         <v>547.9468357840296</v>
       </c>
       <c r="M14" t="n">
-        <v>879.0345500584716</v>
+        <v>879.0345500584717</v>
       </c>
       <c r="N14" t="n">
         <v>1199.962434699153</v>
@@ -5315,13 +5315,13 @@
         <v>1286.319769559712</v>
       </c>
       <c r="W14" t="n">
-        <v>1286.319769559712</v>
+        <v>1055.295751631496</v>
       </c>
       <c r="X14" t="n">
-        <v>1034.758900994511</v>
+        <v>803.7348830662949</v>
       </c>
       <c r="Y14" t="n">
-        <v>1034.758900994511</v>
+        <v>803.7348830662949</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>656.5293805650705</v>
+        <v>748.632703867331</v>
       </c>
       <c r="C15" t="n">
-        <v>606.8230728117567</v>
+        <v>575.8795887891482</v>
       </c>
       <c r="D15" t="n">
-        <v>582.2815734955695</v>
+        <v>551.3380894729611</v>
       </c>
       <c r="E15" t="n">
-        <v>502.5861708632164</v>
+        <v>393.7285604758158</v>
       </c>
       <c r="F15" t="n">
-        <v>357.6303808798332</v>
+        <v>248.7727704924327</v>
       </c>
       <c r="G15" t="n">
-        <v>220.5149049813842</v>
+        <v>111.6572945939837</v>
       </c>
       <c r="H15" t="n">
         <v>111.6572945939837</v>
@@ -5355,19 +5355,19 @@
         <v>33.97907048738206</v>
       </c>
       <c r="J15" t="n">
-        <v>33.97907048738206</v>
+        <v>67.45779303559701</v>
       </c>
       <c r="K15" t="n">
-        <v>33.97907048738206</v>
+        <v>251.2838755152509</v>
       </c>
       <c r="L15" t="n">
-        <v>342.0055308920755</v>
+        <v>559.3103359199444</v>
       </c>
       <c r="M15" t="n">
-        <v>754.2580755895447</v>
+        <v>577.176046155294</v>
       </c>
       <c r="N15" t="n">
-        <v>1174.749072870898</v>
+        <v>997.667043436647</v>
       </c>
       <c r="O15" t="n">
         <v>1331.237917628849</v>
@@ -5379,28 +5379,28 @@
         <v>1698.953524369103</v>
       </c>
       <c r="R15" t="n">
-        <v>1698.953524369103</v>
+        <v>1668.010040346494</v>
       </c>
       <c r="S15" t="n">
-        <v>1533.517795245564</v>
+        <v>1625.621118547824</v>
       </c>
       <c r="T15" t="n">
-        <v>1457.313680083196</v>
+        <v>1426.370196060587</v>
       </c>
       <c r="U15" t="n">
-        <v>1353.452579223862</v>
+        <v>1322.509095201253</v>
       </c>
       <c r="V15" t="n">
-        <v>1242.248143074332</v>
+        <v>1211.304659051723</v>
       </c>
       <c r="W15" t="n">
-        <v>1112.780458732534</v>
+        <v>1081.836974709925</v>
       </c>
       <c r="X15" t="n">
-        <v>906.2535601381115</v>
+        <v>875.3100761155029</v>
       </c>
       <c r="Y15" t="n">
-        <v>823.5719316866309</v>
+        <v>792.6284476640224</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>267.0090212616878</v>
+        <v>255.5111119102742</v>
       </c>
       <c r="C16" t="n">
-        <v>221.0290074439281</v>
+        <v>209.5310980925146</v>
       </c>
       <c r="D16" t="n">
-        <v>193.5651415218078</v>
+        <v>193.5651415218074</v>
       </c>
       <c r="E16" t="n">
-        <v>168.1527325101119</v>
+        <v>168.1527325101116</v>
       </c>
       <c r="F16" t="n">
         <v>143.5641646735621</v>
       </c>
       <c r="G16" t="n">
-        <v>97.2617015883115</v>
+        <v>97.26170158831134</v>
       </c>
       <c r="H16" t="n">
-        <v>59.1415617706522</v>
+        <v>59.14156177065214</v>
       </c>
       <c r="I16" t="n">
         <v>33.97907048738206</v>
       </c>
       <c r="J16" t="n">
-        <v>82.99193887568103</v>
+        <v>82.99193887568106</v>
       </c>
       <c r="K16" t="n">
-        <v>215.8564161089038</v>
+        <v>215.8564161089039</v>
       </c>
       <c r="L16" t="n">
-        <v>407.9548497235634</v>
+        <v>407.9548497235636</v>
       </c>
       <c r="M16" t="n">
-        <v>614.5329219323831</v>
+        <v>614.5329219323835</v>
       </c>
       <c r="N16" t="n">
-        <v>824.207846275365</v>
+        <v>824.2078462753655</v>
       </c>
       <c r="O16" t="n">
         <v>1011.746220293432</v>
       </c>
       <c r="P16" t="n">
-        <v>1166.400818559812</v>
+        <v>1166.400818559813</v>
       </c>
       <c r="Q16" t="n">
-        <v>1227.418618207622</v>
+        <v>1227.418618207623</v>
       </c>
       <c r="R16" t="n">
-        <v>1185.942046934425</v>
+        <v>1185.942046934426</v>
       </c>
       <c r="S16" t="n">
-        <v>1088.501263357761</v>
+        <v>1088.501263357762</v>
       </c>
       <c r="T16" t="n">
-        <v>993.4162281172058</v>
+        <v>981.9183187657918</v>
       </c>
       <c r="U16" t="n">
-        <v>827.5342303394805</v>
+        <v>816.0363209880664</v>
       </c>
       <c r="V16" t="n">
-        <v>695.0897739603705</v>
+        <v>683.5918646089565</v>
       </c>
       <c r="W16" t="n">
-        <v>529.15418038886</v>
+        <v>517.6562710374462</v>
       </c>
       <c r="X16" t="n">
-        <v>423.7763817214974</v>
+        <v>412.2784723700837</v>
       </c>
       <c r="Y16" t="n">
-        <v>325.8649326142772</v>
+        <v>314.3670232628636</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.1109949202321</v>
+        <v>962.1109949202316</v>
       </c>
       <c r="C17" t="n">
-        <v>817.3937904394376</v>
+        <v>817.3937904394372</v>
       </c>
       <c r="D17" t="n">
-        <v>683.1618010337382</v>
+        <v>683.1618010337379</v>
       </c>
       <c r="E17" t="n">
-        <v>522.1486974859288</v>
+        <v>522.1486974859284</v>
       </c>
       <c r="F17" t="n">
-        <v>336.7155659328128</v>
+        <v>336.7155659328125</v>
       </c>
       <c r="G17" t="n">
         <v>144.1716667968213</v>
@@ -5549,13 +5549,13 @@
         <v>1670.952513285983</v>
       </c>
       <c r="V17" t="n">
-        <v>1565.075585730869</v>
+        <v>1565.075585730868</v>
       </c>
       <c r="W17" t="n">
-        <v>1436.979571834305</v>
+        <v>1436.979571834304</v>
       </c>
       <c r="X17" t="n">
-        <v>1288.346707300756</v>
+        <v>1288.346707300755</v>
       </c>
       <c r="Y17" t="n">
         <v>1123.728516888352</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>499.2762821900042</v>
+        <v>631.9568069080232</v>
       </c>
       <c r="C18" t="n">
-        <v>326.5231671118214</v>
+        <v>459.2036918298404</v>
       </c>
       <c r="D18" t="n">
-        <v>178.9348604707652</v>
+        <v>311.6153851887842</v>
       </c>
       <c r="E18" t="n">
-        <v>178.9348604707652</v>
+        <v>154.0058561916389</v>
       </c>
       <c r="F18" t="n">
         <v>33.97907048738206</v>
@@ -5592,25 +5592,25 @@
         <v>33.97907048738206</v>
       </c>
       <c r="J18" t="n">
-        <v>33.97907048738206</v>
+        <v>67.45779303559701</v>
       </c>
       <c r="K18" t="n">
-        <v>33.97907048738206</v>
+        <v>251.2838755152509</v>
       </c>
       <c r="L18" t="n">
-        <v>342.0055308920755</v>
+        <v>559.3103359199444</v>
       </c>
       <c r="M18" t="n">
-        <v>754.2580755895445</v>
+        <v>971.5628806174134</v>
       </c>
       <c r="N18" t="n">
-        <v>1174.749072870898</v>
+        <v>997.667043436647</v>
       </c>
       <c r="O18" t="n">
-        <v>1508.319947063099</v>
+        <v>1331.237917628849</v>
       </c>
       <c r="P18" t="n">
-        <v>1698.953524369103</v>
+        <v>1582.53141121715</v>
       </c>
       <c r="Q18" t="n">
         <v>1698.953524369103</v>
@@ -5625,19 +5625,19 @@
         <v>1698.953524369103</v>
       </c>
       <c r="U18" t="n">
-        <v>1565.339902823403</v>
+        <v>1698.020427541422</v>
       </c>
       <c r="V18" t="n">
-        <v>1331.088659349004</v>
+        <v>1463.769184067022</v>
       </c>
       <c r="W18" t="n">
-        <v>1078.574167682337</v>
+        <v>1211.254692400356</v>
       </c>
       <c r="X18" t="n">
-        <v>872.0472690879142</v>
+        <v>1004.727793805933</v>
       </c>
       <c r="Y18" t="n">
-        <v>666.3188333115646</v>
+        <v>798.9993580295836</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="C19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="D19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="E19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="F19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="G19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="H19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="I19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="J19" t="n">
         <v>33.97907048738206</v>
@@ -5692,31 +5692,31 @@
         <v>393.7988950168894</v>
       </c>
       <c r="Q19" t="n">
-        <v>333.0087958318118</v>
+        <v>393.7988950168894</v>
       </c>
       <c r="R19" t="n">
-        <v>333.0087958318118</v>
+        <v>393.7988950168894</v>
       </c>
       <c r="S19" t="n">
-        <v>333.0087958318118</v>
+        <v>393.7988950168894</v>
       </c>
       <c r="T19" t="n">
-        <v>264.9456799328967</v>
+        <v>390.1439544565716</v>
       </c>
       <c r="U19" t="n">
-        <v>201.9916861868237</v>
+        <v>327.1899607104986</v>
       </c>
       <c r="V19" t="n">
-        <v>172.4752338393661</v>
+        <v>297.673508363041</v>
       </c>
       <c r="W19" t="n">
-        <v>109.4676442995081</v>
+        <v>234.665918823183</v>
       </c>
       <c r="X19" t="n">
-        <v>107.0178496637979</v>
+        <v>232.2161241874727</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.0178496637979</v>
+        <v>33.97907048738206</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.1109949202316</v>
+        <v>962.1109949202319</v>
       </c>
       <c r="C20" t="n">
-        <v>817.3937904394372</v>
+        <v>817.3937904394375</v>
       </c>
       <c r="D20" t="n">
         <v>683.1618010337381</v>
@@ -5750,16 +5750,16 @@
         <v>33.97907048738206</v>
       </c>
       <c r="J20" t="n">
-        <v>77.12375305453963</v>
+        <v>77.12375305453958</v>
       </c>
       <c r="K20" t="n">
-        <v>264.0630408491238</v>
+        <v>264.0630408491237</v>
       </c>
       <c r="L20" t="n">
-        <v>547.9468357840296</v>
+        <v>547.9468357840299</v>
       </c>
       <c r="M20" t="n">
-        <v>879.0345500584716</v>
+        <v>879.0345500584717</v>
       </c>
       <c r="N20" t="n">
         <v>1199.962434699153</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>656.8858111871494</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="C21" t="n">
-        <v>484.1326961089666</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="D21" t="n">
-        <v>336.5443894679105</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9348604707652</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="F21" t="n">
-        <v>33.97907048738206</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="G21" t="n">
-        <v>33.97907048738206</v>
+        <v>220.5149049813842</v>
       </c>
       <c r="H21" t="n">
-        <v>33.97907048738206</v>
+        <v>111.6572945939837</v>
       </c>
       <c r="I21" t="n">
         <v>33.97907048738206</v>
@@ -5835,7 +5835,7 @@
         <v>251.2838755152509</v>
       </c>
       <c r="L21" t="n">
-        <v>281.3456146097781</v>
+        <v>559.3103359199444</v>
       </c>
       <c r="M21" t="n">
         <v>693.5981593072472</v>
@@ -5853,28 +5853,28 @@
         <v>1698.953524369103</v>
       </c>
       <c r="R21" t="n">
-        <v>1698.953524369103</v>
+        <v>1620.792520589154</v>
       </c>
       <c r="S21" t="n">
-        <v>1698.953524369103</v>
+        <v>1455.356791465616</v>
       </c>
       <c r="T21" t="n">
-        <v>1698.953524369103</v>
+        <v>1256.105868978378</v>
       </c>
       <c r="U21" t="n">
-        <v>1698.020427541422</v>
+        <v>1029.197960794176</v>
       </c>
       <c r="V21" t="n">
-        <v>1488.698188346149</v>
+        <v>794.9467173197763</v>
       </c>
       <c r="W21" t="n">
-        <v>1236.183696679482</v>
+        <v>542.4322256531096</v>
       </c>
       <c r="X21" t="n">
-        <v>1029.656798085059</v>
+        <v>426.2433407577337</v>
       </c>
       <c r="Y21" t="n">
-        <v>823.9283623087099</v>
+        <v>220.5149049813842</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="C22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="D22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="E22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="F22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="G22" t="n">
         <v>33.97907048738206</v>
@@ -5938,22 +5938,22 @@
         <v>393.7988950168894</v>
       </c>
       <c r="T22" t="n">
-        <v>390.1439544565716</v>
+        <v>191.9069007564809</v>
       </c>
       <c r="U22" t="n">
-        <v>327.1899607104986</v>
+        <v>128.9529070104079</v>
       </c>
       <c r="V22" t="n">
-        <v>268.7857250730701</v>
+        <v>99.4364546629503</v>
       </c>
       <c r="W22" t="n">
-        <v>205.7781355332121</v>
+        <v>36.42886512309229</v>
       </c>
       <c r="X22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.3283408975018</v>
+        <v>33.97907048738206</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.1109949202314</v>
+        <v>962.1109949202327</v>
       </c>
       <c r="C23" t="n">
-        <v>817.393790439437</v>
+        <v>817.3937904394381</v>
       </c>
       <c r="D23" t="n">
-        <v>683.1618010337377</v>
+        <v>683.1618010337388</v>
       </c>
       <c r="E23" t="n">
-        <v>522.1486974859282</v>
+        <v>522.1486974859291</v>
       </c>
       <c r="F23" t="n">
-        <v>336.7155659328123</v>
+        <v>336.7155659328132</v>
       </c>
       <c r="G23" t="n">
         <v>144.1716667968213</v>
       </c>
       <c r="H23" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="I23" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="J23" t="n">
-        <v>77.12375305453961</v>
+        <v>77.12375305453963</v>
       </c>
       <c r="K23" t="n">
-        <v>264.0630408491237</v>
+        <v>264.0630408491238</v>
       </c>
       <c r="L23" t="n">
-        <v>547.9468357840295</v>
+        <v>547.9468357840296</v>
       </c>
       <c r="M23" t="n">
-        <v>879.0345500584715</v>
+        <v>879.0345500584716</v>
       </c>
       <c r="N23" t="n">
-        <v>1199.962434699152</v>
+        <v>1199.962434699153</v>
       </c>
       <c r="O23" t="n">
         <v>1456.877184359174</v>
@@ -6020,19 +6020,19 @@
         <v>1698.953524369103</v>
       </c>
       <c r="U23" t="n">
-        <v>1670.952513285982</v>
+        <v>1670.952513285983</v>
       </c>
       <c r="V23" t="n">
-        <v>1565.075585730868</v>
+        <v>1565.075585730869</v>
       </c>
       <c r="W23" t="n">
-        <v>1436.979571834304</v>
+        <v>1436.979571834305</v>
       </c>
       <c r="X23" t="n">
-        <v>1288.346707300755</v>
+        <v>1288.346707300756</v>
       </c>
       <c r="Y23" t="n">
-        <v>1123.728516888352</v>
+        <v>1123.728516888353</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>405.9819955515015</v>
+        <v>794.0012870855985</v>
       </c>
       <c r="C24" t="n">
-        <v>233.2288804733187</v>
+        <v>621.2481720074156</v>
       </c>
       <c r="D24" t="n">
-        <v>85.64057383226259</v>
+        <v>473.6598653663596</v>
       </c>
       <c r="E24" t="n">
-        <v>85.64057383226259</v>
+        <v>316.0503363692143</v>
       </c>
       <c r="F24" t="n">
-        <v>85.64057383226259</v>
+        <v>171.0945463858311</v>
       </c>
       <c r="G24" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="H24" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="I24" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="J24" t="n">
-        <v>33.97907048738205</v>
+        <v>67.45779303559701</v>
       </c>
       <c r="K24" t="n">
-        <v>33.97907048738205</v>
+        <v>67.45779303559701</v>
       </c>
       <c r="L24" t="n">
-        <v>342.0055308920755</v>
+        <v>281.3456146097781</v>
       </c>
       <c r="M24" t="n">
-        <v>754.2580755895445</v>
+        <v>693.5981593072472</v>
       </c>
       <c r="N24" t="n">
-        <v>1174.749072870897</v>
+        <v>1114.0891565886</v>
       </c>
       <c r="O24" t="n">
-        <v>1508.319947063099</v>
+        <v>1447.660030780802</v>
       </c>
       <c r="P24" t="n">
         <v>1698.953524369103</v>
@@ -6099,19 +6099,19 @@
         <v>1698.953524369103</v>
       </c>
       <c r="U24" t="n">
-        <v>1472.0456161849</v>
+        <v>1698.020427541422</v>
       </c>
       <c r="V24" t="n">
-        <v>1237.794372710501</v>
+        <v>1625.813664244598</v>
       </c>
       <c r="W24" t="n">
-        <v>985.2798810438341</v>
+        <v>1373.299172577931</v>
       </c>
       <c r="X24" t="n">
-        <v>778.7529824494115</v>
+        <v>1166.772273983509</v>
       </c>
       <c r="Y24" t="n">
-        <v>573.024546673062</v>
+        <v>961.043838207159</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="C25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="D25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="E25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="F25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="G25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="H25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="I25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="J25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="K25" t="n">
-        <v>46.24537186150074</v>
+        <v>46.24537186150076</v>
       </c>
       <c r="L25" t="n">
         <v>117.7456296170564</v>
@@ -6175,22 +6175,22 @@
         <v>393.7988950168894</v>
       </c>
       <c r="T25" t="n">
-        <v>390.1439544565716</v>
+        <v>191.9069007564809</v>
       </c>
       <c r="U25" t="n">
-        <v>327.1899607104986</v>
+        <v>128.9529070104079</v>
       </c>
       <c r="V25" t="n">
-        <v>297.673508363041</v>
+        <v>99.4364546629503</v>
       </c>
       <c r="W25" t="n">
-        <v>234.665918823183</v>
+        <v>36.42886512309229</v>
       </c>
       <c r="X25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.97907048738205</v>
+        <v>33.97907048738206</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1522.004590188228</v>
+        <v>1522.004590188227</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.117940377908</v>
+        <v>1295.117940377907</v>
       </c>
       <c r="D26" t="n">
-        <v>1078.716505642683</v>
+        <v>1078.716505642682</v>
       </c>
       <c r="E26" t="n">
-        <v>835.5339567653484</v>
+        <v>835.5339567653472</v>
       </c>
       <c r="F26" t="n">
-        <v>567.9313798827069</v>
+        <v>567.9313798827059</v>
       </c>
       <c r="G26" t="n">
-        <v>293.2180354171901</v>
+        <v>293.2180354171891</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8559937782252</v>
+        <v>100.8559937782251</v>
       </c>
       <c r="I26" t="n">
-        <v>57.66224360633061</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="J26" t="n">
-        <v>241.7505654165468</v>
+        <v>241.7505654165469</v>
       </c>
       <c r="K26" t="n">
-        <v>569.6334924541895</v>
+        <v>569.6334924541896</v>
       </c>
       <c r="L26" t="n">
-        <v>994.460926632154</v>
+        <v>994.4609266321543</v>
       </c>
       <c r="M26" t="n">
         <v>1466.492280149655</v>
       </c>
       <c r="N26" t="n">
-        <v>1928.363804033394</v>
+        <v>1928.363804033395</v>
       </c>
       <c r="O26" t="n">
-        <v>2326.222192936475</v>
+        <v>2326.222192936474</v>
       </c>
       <c r="P26" t="n">
-        <v>2649.497833913552</v>
+        <v>2649.49783391355</v>
       </c>
       <c r="Q26" t="n">
-        <v>2850.185811432521</v>
+        <v>2850.18581143252</v>
       </c>
       <c r="R26" t="n">
-        <v>2883.112180316531</v>
+        <v>2883.11218031653</v>
       </c>
       <c r="S26" t="n">
         <v>2830.970930910806</v>
@@ -6257,19 +6257,19 @@
         <v>2751.863791614251</v>
       </c>
       <c r="U26" t="n">
-        <v>2641.693335201607</v>
+        <v>2641.693335201605</v>
       </c>
       <c r="V26" t="n">
-        <v>2453.646962316967</v>
+        <v>2453.646962316965</v>
       </c>
       <c r="W26" t="n">
-        <v>2243.381503090877</v>
+        <v>2243.381503090875</v>
       </c>
       <c r="X26" t="n">
-        <v>2012.579193227803</v>
+        <v>2012.579193227801</v>
       </c>
       <c r="Y26" t="n">
-        <v>1765.791557485874</v>
+        <v>1765.791557485872</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>399.2757253238035</v>
+        <v>680.5689843060979</v>
       </c>
       <c r="C27" t="n">
-        <v>226.5226102456207</v>
+        <v>507.8158692279152</v>
       </c>
       <c r="D27" t="n">
-        <v>78.93430360456455</v>
+        <v>360.2275625868591</v>
       </c>
       <c r="E27" t="n">
-        <v>65.13014063441514</v>
+        <v>202.6180335897137</v>
       </c>
       <c r="F27" t="n">
-        <v>63.97971667802789</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="G27" t="n">
-        <v>57.66224360633061</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="H27" t="n">
-        <v>57.66224360633061</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="I27" t="n">
-        <v>57.66224360633061</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="J27" t="n">
-        <v>91.14096615454557</v>
+        <v>91.14096615454555</v>
       </c>
       <c r="K27" t="n">
         <v>274.9670486341995</v>
@@ -6327,28 +6327,28 @@
         <v>2135.094909532129</v>
       </c>
       <c r="R27" t="n">
-        <v>2056.933905752181</v>
+        <v>2135.094909532129</v>
       </c>
       <c r="S27" t="n">
-        <v>1891.498176628642</v>
+        <v>2028.986069583941</v>
       </c>
       <c r="T27" t="n">
-        <v>1692.247254141404</v>
+        <v>1973.540513123699</v>
       </c>
       <c r="U27" t="n">
-        <v>1465.339345957202</v>
+        <v>1746.632604939496</v>
       </c>
       <c r="V27" t="n">
-        <v>1231.088102482803</v>
+        <v>1512.381361465097</v>
       </c>
       <c r="W27" t="n">
-        <v>978.573610816136</v>
+        <v>1259.86686979843</v>
       </c>
       <c r="X27" t="n">
-        <v>772.0467122217135</v>
+        <v>1053.339971204008</v>
       </c>
       <c r="Y27" t="n">
-        <v>566.3182764453639</v>
+        <v>847.6115354276584</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.382283465748</v>
+        <v>145.3822834657476</v>
       </c>
       <c r="C28" t="n">
-        <v>120.1608283501153</v>
+        <v>120.1608283501149</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4555211301219</v>
+        <v>113.4555211301216</v>
       </c>
       <c r="E28" t="n">
-        <v>108.8016708205529</v>
+        <v>108.8016708205527</v>
       </c>
       <c r="F28" t="n">
-        <v>104.9716616861301</v>
+        <v>104.9716616861299</v>
       </c>
       <c r="G28" t="n">
-        <v>79.42775730300622</v>
+        <v>79.42775730300609</v>
       </c>
       <c r="H28" t="n">
-        <v>62.06617618747385</v>
+        <v>62.06617618747378</v>
       </c>
       <c r="I28" t="n">
-        <v>57.66224360633061</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="J28" t="n">
-        <v>66.4487561535077</v>
+        <v>57.6622436063306</v>
       </c>
       <c r="K28" t="n">
-        <v>78.7150575276264</v>
+        <v>78.71505752762504</v>
       </c>
       <c r="L28" t="n">
-        <v>150.215315283182</v>
+        <v>150.2153152831806</v>
       </c>
       <c r="M28" t="n">
-        <v>236.195211632898</v>
+        <v>236.1952116328966</v>
       </c>
       <c r="N28" t="n">
-        <v>466.2155993598344</v>
+        <v>466.215599359833</v>
       </c>
       <c r="O28" t="n">
-        <v>674.0994367618556</v>
+        <v>674.0994367618543</v>
       </c>
       <c r="P28" t="n">
-        <v>849.099498412191</v>
+        <v>849.0994984121899</v>
       </c>
       <c r="Q28" t="n">
-        <v>930.4627614439549</v>
+        <v>930.4627614439539</v>
       </c>
       <c r="R28" t="n">
-        <v>909.7447488728847</v>
+        <v>909.7447488728836</v>
       </c>
       <c r="S28" t="n">
-        <v>833.0625239983477</v>
+        <v>833.0625239983468</v>
       </c>
       <c r="T28" t="n">
-        <v>747.2381381085045</v>
+        <v>747.2381381085037</v>
       </c>
       <c r="U28" t="n">
-        <v>602.1146990329059</v>
+        <v>602.1146990329053</v>
       </c>
       <c r="V28" t="n">
-        <v>490.4288013559229</v>
+        <v>490.4288013559223</v>
       </c>
       <c r="W28" t="n">
-        <v>345.2517664865395</v>
+        <v>345.2517664865389</v>
       </c>
       <c r="X28" t="n">
-        <v>260.6325265213038</v>
+        <v>260.6325265213032</v>
       </c>
       <c r="Y28" t="n">
-        <v>183.4796361162105</v>
+        <v>183.4796361162101</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1522.004590188227</v>
+        <v>1522.004590188228</v>
       </c>
       <c r="C29" t="n">
-        <v>1295.117940377907</v>
+        <v>1295.117940377908</v>
       </c>
       <c r="D29" t="n">
         <v>1078.716505642683</v>
       </c>
       <c r="E29" t="n">
-        <v>835.5339567653479</v>
+        <v>835.5339567653484</v>
       </c>
       <c r="F29" t="n">
-        <v>567.9313798827066</v>
+        <v>567.9313798827071</v>
       </c>
       <c r="G29" t="n">
-        <v>293.2180354171899</v>
+        <v>293.2180354171904</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8559937782251</v>
+        <v>100.8559937782257</v>
       </c>
       <c r="I29" t="n">
-        <v>57.66224360633061</v>
+        <v>57.66224360633062</v>
       </c>
       <c r="J29" t="n">
-        <v>241.7505654165468</v>
+        <v>241.7505654165469</v>
       </c>
       <c r="K29" t="n">
-        <v>569.6334924541895</v>
+        <v>569.6334924541898</v>
       </c>
       <c r="L29" t="n">
-        <v>994.460926632154</v>
+        <v>994.4609266321543</v>
       </c>
       <c r="M29" t="n">
         <v>1466.492280149655</v>
@@ -6476,22 +6476,22 @@
         <v>1928.363804033395</v>
       </c>
       <c r="O29" t="n">
-        <v>2326.222192936474</v>
+        <v>2326.222192936475</v>
       </c>
       <c r="P29" t="n">
-        <v>2649.497833913551</v>
+        <v>2649.497833913552</v>
       </c>
       <c r="Q29" t="n">
-        <v>2850.18581143252</v>
+        <v>2850.185811432522</v>
       </c>
       <c r="R29" t="n">
-        <v>2883.11218031653</v>
+        <v>2883.112180316531</v>
       </c>
       <c r="S29" t="n">
-        <v>2830.970930910805</v>
+        <v>2830.970930910806</v>
       </c>
       <c r="T29" t="n">
-        <v>2751.863791614251</v>
+        <v>2751.863791614252</v>
       </c>
       <c r="U29" t="n">
         <v>2641.693335201606</v>
@@ -6500,10 +6500,10 @@
         <v>2453.646962316966</v>
       </c>
       <c r="W29" t="n">
-        <v>2243.381503090876</v>
+        <v>2243.381503090877</v>
       </c>
       <c r="X29" t="n">
-        <v>2012.579193227802</v>
+        <v>2012.579193227803</v>
       </c>
       <c r="Y29" t="n">
         <v>1765.791557485873</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.5689843060979</v>
+        <v>543.0810913507994</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8158692279152</v>
+        <v>514.1333422996125</v>
       </c>
       <c r="D30" t="n">
-        <v>360.2275625868591</v>
+        <v>510.3504016855524</v>
       </c>
       <c r="E30" t="n">
-        <v>202.6180335897137</v>
+        <v>496.546238715403</v>
       </c>
       <c r="F30" t="n">
-        <v>57.66224360633061</v>
+        <v>351.5904487320198</v>
       </c>
       <c r="G30" t="n">
-        <v>57.66224360633061</v>
+        <v>214.4749728335708</v>
       </c>
       <c r="H30" t="n">
-        <v>57.66224360633061</v>
+        <v>105.6173624461702</v>
       </c>
       <c r="I30" t="n">
-        <v>57.66224360633061</v>
+        <v>57.66224360633062</v>
       </c>
       <c r="J30" t="n">
         <v>91.14096615454557</v>
@@ -6567,25 +6567,25 @@
         <v>2056.933905752181</v>
       </c>
       <c r="S30" t="n">
-        <v>2028.986069583941</v>
+        <v>1891.498176628642</v>
       </c>
       <c r="T30" t="n">
-        <v>1973.540513123699</v>
+        <v>1692.247254141404</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.632604939496</v>
+        <v>1465.339345957202</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.381361465097</v>
+        <v>1231.088102482803</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.86686979843</v>
+        <v>978.573610816136</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.339971204008</v>
+        <v>772.0467122217135</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.6115354276584</v>
+        <v>566.3182764453639</v>
       </c>
     </row>
     <row r="31">
@@ -6610,13 +6610,13 @@
         <v>104.9716616861299</v>
       </c>
       <c r="G31" t="n">
-        <v>79.4277573030061</v>
+        <v>79.42775730300612</v>
       </c>
       <c r="H31" t="n">
-        <v>62.06617618747379</v>
+        <v>62.0661761874738</v>
       </c>
       <c r="I31" t="n">
-        <v>57.66224360633061</v>
+        <v>57.66224360633062</v>
       </c>
       <c r="J31" t="n">
         <v>127.0205753785842</v>
@@ -6625,19 +6625,19 @@
         <v>280.2305159957616</v>
       </c>
       <c r="L31" t="n">
-        <v>351.7307737513172</v>
+        <v>492.6744129943759</v>
       </c>
       <c r="M31" t="n">
-        <v>437.7106701010331</v>
+        <v>599.445753150778</v>
       </c>
       <c r="N31" t="n">
-        <v>526.7874185849109</v>
+        <v>688.5225016346558</v>
       </c>
       <c r="O31" t="n">
-        <v>674.0994367618543</v>
+        <v>755.4626997936184</v>
       </c>
       <c r="P31" t="n">
-        <v>849.0994984121899</v>
+        <v>930.4627614439539</v>
       </c>
       <c r="Q31" t="n">
         <v>930.4627614439539</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1493.641891443845</v>
+        <v>1493.641891443847</v>
       </c>
       <c r="C32" t="n">
-        <v>1270.637286992393</v>
+        <v>1270.637286992395</v>
       </c>
       <c r="D32" t="n">
-        <v>1058.117897616037</v>
+        <v>1058.117897616038</v>
       </c>
       <c r="E32" t="n">
-        <v>818.8173940975695</v>
+        <v>818.8173940975705</v>
       </c>
       <c r="F32" t="n">
-        <v>555.096862573796</v>
+        <v>555.0968625737969</v>
       </c>
       <c r="G32" t="n">
-        <v>284.2655634671473</v>
+        <v>284.2655634671478</v>
       </c>
       <c r="H32" t="n">
-        <v>95.78556718705082</v>
+        <v>95.78556718705096</v>
       </c>
       <c r="I32" t="n">
-        <v>56.47386237402413</v>
+        <v>56.47386237402415</v>
       </c>
       <c r="J32" t="n">
-        <v>244.3669768404667</v>
+        <v>244.3669768404666</v>
       </c>
       <c r="K32" t="n">
-        <v>576.0546965343358</v>
+        <v>576.0546965343357</v>
       </c>
       <c r="L32" t="n">
-        <v>1004.686923368527</v>
+        <v>1004.686923368526</v>
       </c>
       <c r="M32" t="n">
-        <v>1480.523069542254</v>
+        <v>1480.523069542253</v>
       </c>
       <c r="N32" t="n">
-        <v>1853.725571793165</v>
+        <v>1946.199386082219</v>
       </c>
       <c r="O32" t="n">
-        <v>2255.388753352471</v>
+        <v>2347.862567641525</v>
       </c>
       <c r="P32" t="n">
-        <v>2582.469186985775</v>
+        <v>2582.469186985776</v>
       </c>
       <c r="Q32" t="n">
         <v>2786.961957160971</v>
       </c>
       <c r="R32" t="n">
-        <v>2823.693118701206</v>
+        <v>2823.693118701207</v>
       </c>
       <c r="S32" t="n">
-        <v>2775.433914654349</v>
+        <v>2775.43391465435</v>
       </c>
       <c r="T32" t="n">
         <v>2700.208820716663</v>
       </c>
       <c r="U32" t="n">
-        <v>2593.920409662885</v>
+        <v>2593.920409662886</v>
       </c>
       <c r="V32" t="n">
-        <v>2409.756082137113</v>
+        <v>2409.756082137114</v>
       </c>
       <c r="W32" t="n">
-        <v>2203.372668269891</v>
+        <v>2203.372668269893</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.452403765684</v>
+        <v>1976.452403765686</v>
       </c>
       <c r="Y32" t="n">
-        <v>1733.546813382623</v>
+        <v>1733.546813382625</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693.462166863224</v>
+        <v>492.9624954342722</v>
       </c>
       <c r="C33" t="n">
-        <v>520.7090517850411</v>
+        <v>320.2093803560894</v>
       </c>
       <c r="D33" t="n">
-        <v>373.1207451439849</v>
+        <v>320.2093803560894</v>
       </c>
       <c r="E33" t="n">
-        <v>338.5451282558563</v>
+        <v>310.2872627448078</v>
       </c>
       <c r="F33" t="n">
-        <v>193.5893382724732</v>
+        <v>165.3314727614247</v>
       </c>
       <c r="G33" t="n">
-        <v>56.47386237402413</v>
+        <v>165.3314727614247</v>
       </c>
       <c r="H33" t="n">
-        <v>56.47386237402413</v>
+        <v>56.47386237402415</v>
       </c>
       <c r="I33" t="n">
-        <v>56.47386237402413</v>
+        <v>56.47386237402415</v>
       </c>
       <c r="J33" t="n">
-        <v>89.95258492223908</v>
+        <v>89.95258492223911</v>
       </c>
       <c r="K33" t="n">
         <v>273.778667401893</v>
@@ -6801,28 +6801,28 @@
         <v>2133.906528299823</v>
       </c>
       <c r="R33" t="n">
-        <v>2055.745524519874</v>
+        <v>2133.906528299823</v>
       </c>
       <c r="S33" t="n">
-        <v>2037.997206782199</v>
+        <v>1968.470799176284</v>
       </c>
       <c r="T33" t="n">
-        <v>1838.746284294961</v>
+        <v>1785.934024251873</v>
       </c>
       <c r="U33" t="n">
-        <v>1759.525787496623</v>
+        <v>1559.026116067671</v>
       </c>
       <c r="V33" t="n">
-        <v>1525.274544022223</v>
+        <v>1324.774872593272</v>
       </c>
       <c r="W33" t="n">
-        <v>1272.760052355557</v>
+        <v>1072.260380926605</v>
       </c>
       <c r="X33" t="n">
-        <v>1066.233153761134</v>
+        <v>865.7334823321822</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.5047179847844</v>
+        <v>660.0050465558327</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.0716209458115</v>
+        <v>117.0206202422337</v>
       </c>
       <c r="C34" t="n">
-        <v>95.73221118904664</v>
+        <v>95.68121048546875</v>
       </c>
       <c r="D34" t="n">
-        <v>92.90894932792112</v>
+        <v>92.85794862434312</v>
       </c>
       <c r="E34" t="n">
-        <v>92.13714437722004</v>
+        <v>92.08614367364193</v>
       </c>
       <c r="F34" t="n">
-        <v>92.13714437722004</v>
+        <v>92.13714437722041</v>
       </c>
       <c r="G34" t="n">
-        <v>70.47528535296401</v>
+        <v>70.47528535296426</v>
       </c>
       <c r="H34" t="n">
-        <v>56.9957495962995</v>
+        <v>56.99574959629964</v>
       </c>
       <c r="I34" t="n">
-        <v>56.47386237402413</v>
+        <v>56.47386237402415</v>
       </c>
       <c r="J34" t="n">
-        <v>56.47386237402413</v>
+        <v>129.6369868025039</v>
       </c>
       <c r="K34" t="n">
-        <v>68.74016374814282</v>
+        <v>286.6517200759076</v>
       </c>
       <c r="L34" t="n">
-        <v>284.9888534029835</v>
+        <v>361.1929370035227</v>
       </c>
       <c r="M34" t="n">
-        <v>515.7171816519844</v>
+        <v>447.1728333532386</v>
       </c>
       <c r="N34" t="n">
-        <v>621.4686382286833</v>
+        <v>536.2495818371164</v>
       </c>
       <c r="O34" t="n">
-        <v>688.4088363876459</v>
+        <v>603.189779996079</v>
       </c>
       <c r="P34" t="n">
-        <v>867.2136906942077</v>
+        <v>781.9946343026406</v>
       </c>
       <c r="Q34" t="n">
-        <v>867.2136906942077</v>
+        <v>867.162689990631</v>
       </c>
       <c r="R34" t="n">
-        <v>850.3777234820052</v>
+        <v>850.3267227784283</v>
       </c>
       <c r="S34" t="n">
-        <v>777.5775439663362</v>
+        <v>777.5265432627592</v>
       </c>
       <c r="T34" t="n">
-        <v>695.6352034353608</v>
+        <v>695.5842027317838</v>
       </c>
       <c r="U34" t="n">
-        <v>554.3938097186302</v>
+        <v>554.342809015053</v>
       </c>
       <c r="V34" t="n">
-        <v>446.589957400515</v>
+        <v>446.5389566969377</v>
       </c>
       <c r="W34" t="n">
-        <v>305.2949678899994</v>
+        <v>305.243967186422</v>
       </c>
       <c r="X34" t="n">
-        <v>224.5577732836315</v>
+        <v>224.506772580054</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.2869282374062</v>
+        <v>151.2359275338285</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>1161.47795830925</v>
       </c>
       <c r="C35" t="n">
-        <v>984.9358456855383</v>
+        <v>984.9358456855374</v>
       </c>
       <c r="D35" t="n">
-        <v>818.8789481369213</v>
+        <v>818.8789481369204</v>
       </c>
       <c r="E35" t="n">
-        <v>626.0409364461941</v>
+        <v>626.0409364461933</v>
       </c>
       <c r="F35" t="n">
-        <v>408.7828967501605</v>
+        <v>408.7828967501596</v>
       </c>
       <c r="G35" t="n">
         <v>184.4140894712509</v>
       </c>
       <c r="H35" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="I35" t="n">
-        <v>49.40507137201421</v>
+        <v>49.40507137201419</v>
       </c>
       <c r="J35" t="n">
-        <v>282.8360740788246</v>
+        <v>92.54975393917174</v>
       </c>
       <c r="K35" t="n">
-        <v>602.6697176441098</v>
+        <v>279.4890417337559</v>
       </c>
       <c r="L35" t="n">
-        <v>886.5535125790157</v>
+        <v>563.3728366686616</v>
       </c>
       <c r="M35" t="n">
-        <v>1217.641226853458</v>
+        <v>894.4605509431037</v>
       </c>
       <c r="N35" t="n">
-        <v>1538.569111494139</v>
+        <v>1215.388435583785</v>
       </c>
       <c r="O35" t="n">
-        <v>1795.48386115416</v>
+        <v>1605.197541014507</v>
       </c>
       <c r="P35" t="n">
-        <v>1977.815862888178</v>
+        <v>1787.529542748526</v>
       </c>
       <c r="Q35" t="n">
         <v>2037.560201164089</v>
       </c>
       <c r="R35" t="n">
-        <v>2119.829250944692</v>
+        <v>2119.829250944693</v>
       </c>
       <c r="S35" t="n">
         <v>2118.032538725575</v>
@@ -6977,7 +6977,7 @@
         <v>1731.821259652076</v>
       </c>
       <c r="X35" t="n">
-        <v>1551.36348697561</v>
+        <v>1551.363486975609</v>
       </c>
       <c r="Y35" t="n">
         <v>1354.920388420288</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>937.7456022871121</v>
+        <v>735.1412357403287</v>
       </c>
       <c r="C36" t="n">
-        <v>764.9924872089293</v>
+        <v>562.3881206621459</v>
       </c>
       <c r="D36" t="n">
-        <v>617.4041805678733</v>
+        <v>414.7998140210898</v>
       </c>
       <c r="E36" t="n">
-        <v>459.794651570728</v>
+        <v>257.1902850239445</v>
       </c>
       <c r="F36" t="n">
-        <v>314.8388615873448</v>
+        <v>257.1902850239445</v>
       </c>
       <c r="G36" t="n">
-        <v>177.7233856888958</v>
+        <v>120.0748091254955</v>
       </c>
       <c r="H36" t="n">
-        <v>68.86577530149525</v>
+        <v>120.0748091254955</v>
       </c>
       <c r="I36" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="J36" t="n">
-        <v>75.87530756710862</v>
+        <v>75.87530756710922</v>
       </c>
       <c r="K36" t="n">
-        <v>259.7013900467628</v>
+        <v>259.7013900467632</v>
       </c>
       <c r="L36" t="n">
-        <v>567.7278504514561</v>
+        <v>567.7278504514566</v>
       </c>
       <c r="M36" t="n">
-        <v>979.9803951489253</v>
+        <v>979.9803951489257</v>
       </c>
       <c r="N36" t="n">
-        <v>1418.542770012236</v>
+        <v>1418.542770012237</v>
       </c>
       <c r="O36" t="n">
-        <v>1752.113644204438</v>
+        <v>1752.113644204439</v>
       </c>
       <c r="P36" t="n">
-        <v>2003.407137792739</v>
+        <v>2003.40713779274</v>
       </c>
       <c r="Q36" t="n">
-        <v>2119.829250944692</v>
+        <v>2119.829250944693</v>
       </c>
       <c r="R36" t="n">
         <v>2041.668247164744</v>
       </c>
       <c r="S36" t="n">
-        <v>2041.668247164744</v>
+        <v>1876.232518041206</v>
       </c>
       <c r="T36" t="n">
-        <v>2036.567227891109</v>
+        <v>1871.131498767571</v>
       </c>
       <c r="U36" t="n">
-        <v>1809.659319706907</v>
+        <v>1801.204856373727</v>
       </c>
       <c r="V36" t="n">
-        <v>1575.408076232508</v>
+        <v>1566.953612899328</v>
       </c>
       <c r="W36" t="n">
-        <v>1322.893584565841</v>
+        <v>1314.439121232661</v>
       </c>
       <c r="X36" t="n">
-        <v>1310.516589185022</v>
+        <v>1107.912222638239</v>
       </c>
       <c r="Y36" t="n">
-        <v>1104.788153408673</v>
+        <v>902.1837868618892</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="C37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="D37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="E37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="F37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="G37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="H37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
       <c r="I37" t="n">
-        <v>56.43011293980678</v>
+        <v>56.43011293980689</v>
       </c>
       <c r="J37" t="n">
-        <v>56.43011293980678</v>
+        <v>56.43011293980689</v>
       </c>
       <c r="K37" t="n">
-        <v>68.69641431392547</v>
+        <v>68.69641431392559</v>
       </c>
       <c r="L37" t="n">
-        <v>140.1966720694811</v>
+        <v>140.1966720694812</v>
       </c>
       <c r="M37" t="n">
-        <v>226.176568419197</v>
+        <v>226.1765684191971</v>
       </c>
       <c r="N37" t="n">
-        <v>315.2533169030748</v>
+        <v>315.2533169030749</v>
       </c>
       <c r="O37" t="n">
-        <v>382.1935150620374</v>
+        <v>382.1935150620375</v>
       </c>
       <c r="P37" t="n">
-        <v>416.2499374693141</v>
+        <v>416.2499374693143</v>
       </c>
       <c r="Q37" t="n">
-        <v>416.2499374693141</v>
+        <v>416.2499374693143</v>
       </c>
       <c r="R37" t="n">
-        <v>416.2499374693141</v>
+        <v>416.2499374693143</v>
       </c>
       <c r="S37" t="n">
-        <v>389.912249781385</v>
+        <v>389.9122497813851</v>
       </c>
       <c r="T37" t="n">
-        <v>354.4324010781494</v>
+        <v>354.4324010781495</v>
       </c>
       <c r="U37" t="n">
-        <v>259.6534991891585</v>
+        <v>259.6534991891587</v>
       </c>
       <c r="V37" t="n">
-        <v>198.3121386987832</v>
+        <v>198.3121386987833</v>
       </c>
       <c r="W37" t="n">
-        <v>103.4796410160074</v>
+        <v>103.4796410160075</v>
       </c>
       <c r="X37" t="n">
-        <v>69.20493823737939</v>
+        <v>69.20493823737944</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.39658501889385</v>
+        <v>42.39658501889386</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1161.477958309249</v>
+        <v>1161.477958309251</v>
       </c>
       <c r="C38" t="n">
-        <v>984.9358456855371</v>
+        <v>984.9358456855384</v>
       </c>
       <c r="D38" t="n">
-        <v>818.87894813692</v>
+        <v>818.8789481369213</v>
       </c>
       <c r="E38" t="n">
-        <v>626.0409364461927</v>
+        <v>626.0409364461941</v>
       </c>
       <c r="F38" t="n">
-        <v>408.7828967501591</v>
+        <v>408.7828967501605</v>
       </c>
       <c r="G38" t="n">
         <v>184.4140894712509</v>
       </c>
       <c r="H38" t="n">
-        <v>42.39658501889383</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="I38" t="n">
-        <v>49.40507137201416</v>
+        <v>49.40507137201421</v>
       </c>
       <c r="J38" t="n">
-        <v>225.4441097098717</v>
+        <v>92.54975393917175</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3833975044558</v>
+        <v>279.4890417337558</v>
       </c>
       <c r="L38" t="n">
-        <v>696.2671924393617</v>
+        <v>563.3728366686616</v>
       </c>
       <c r="M38" t="n">
-        <v>1027.354906713804</v>
+        <v>894.4605509431036</v>
       </c>
       <c r="N38" t="n">
-        <v>1348.282791354485</v>
+        <v>1215.388435583784</v>
       </c>
       <c r="O38" t="n">
-        <v>1605.197541014506</v>
+        <v>1472.303185243806</v>
       </c>
       <c r="P38" t="n">
-        <v>1787.529542748524</v>
+        <v>1787.529542748525</v>
       </c>
       <c r="Q38" t="n">
-        <v>2037.560201164088</v>
+        <v>2037.560201164089</v>
       </c>
       <c r="R38" t="n">
-        <v>2119.829250944691</v>
+        <v>2119.829250944692</v>
       </c>
       <c r="S38" t="n">
-        <v>2118.032538725574</v>
+        <v>2118.032538725575</v>
       </c>
       <c r="T38" t="n">
         <v>2089.269936615628</v>
       </c>
       <c r="U38" t="n">
-        <v>2029.444017389589</v>
+        <v>2029.444017389591</v>
       </c>
       <c r="V38" t="n">
-        <v>1891.742181691557</v>
+        <v>1891.742181691558</v>
       </c>
       <c r="W38" t="n">
-        <v>1731.821259652075</v>
+        <v>1731.821259652077</v>
       </c>
       <c r="X38" t="n">
-        <v>1551.363486975609</v>
+        <v>1551.36348697561</v>
       </c>
       <c r="Y38" t="n">
-        <v>1354.920388420287</v>
+        <v>1354.920388420289</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>742.9815498252628</v>
+        <v>665.3033257186612</v>
       </c>
       <c r="C39" t="n">
-        <v>570.22843474708</v>
+        <v>492.5502106404784</v>
       </c>
       <c r="D39" t="n">
-        <v>422.6401281060239</v>
+        <v>344.9619039994223</v>
       </c>
       <c r="E39" t="n">
-        <v>265.0305991088786</v>
+        <v>187.352375002277</v>
       </c>
       <c r="F39" t="n">
-        <v>120.0748091254954</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="G39" t="n">
-        <v>120.0748091254954</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="H39" t="n">
-        <v>120.0748091254954</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="I39" t="n">
-        <v>42.39658501889383</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="J39" t="n">
         <v>75.87530756710879</v>
       </c>
       <c r="K39" t="n">
-        <v>259.7013900467628</v>
+        <v>259.7013900467627</v>
       </c>
       <c r="L39" t="n">
-        <v>567.7278504514552</v>
+        <v>567.7278504514563</v>
       </c>
       <c r="M39" t="n">
-        <v>979.9803951489243</v>
+        <v>979.9803951489253</v>
       </c>
       <c r="N39" t="n">
-        <v>1418.542770012235</v>
+        <v>1418.542770012236</v>
       </c>
       <c r="O39" t="n">
-        <v>1752.113644204437</v>
+        <v>1752.113644204438</v>
       </c>
       <c r="P39" t="n">
-        <v>2003.407137792738</v>
+        <v>2003.407137792739</v>
       </c>
       <c r="Q39" t="n">
-        <v>2119.829250944691</v>
+        <v>2119.829250944692</v>
       </c>
       <c r="R39" t="n">
-        <v>2041.668247164743</v>
+        <v>2041.668247164744</v>
       </c>
       <c r="S39" t="n">
-        <v>2041.668247164743</v>
+        <v>1963.375873809897</v>
       </c>
       <c r="T39" t="n">
-        <v>2035.953078642864</v>
+        <v>1958.274854536262</v>
       </c>
       <c r="U39" t="n">
-        <v>1809.045170458661</v>
+        <v>1731.36694635206</v>
       </c>
       <c r="V39" t="n">
-        <v>1574.793926984262</v>
+        <v>1497.115702877661</v>
       </c>
       <c r="W39" t="n">
-        <v>1322.279435317595</v>
+        <v>1244.601211210994</v>
       </c>
       <c r="X39" t="n">
-        <v>1115.752536723173</v>
+        <v>1038.074312616571</v>
       </c>
       <c r="Y39" t="n">
-        <v>910.0241009468233</v>
+        <v>832.3458768402216</v>
       </c>
     </row>
     <row r="40">
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.40005058276969</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="C40" t="n">
-        <v>54.40005058276969</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="D40" t="n">
-        <v>54.40005058276969</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="E40" t="n">
-        <v>54.40005058276969</v>
+        <v>56.43011293980683</v>
       </c>
       <c r="F40" t="n">
-        <v>54.40005058276969</v>
+        <v>56.43011293980683</v>
       </c>
       <c r="G40" t="n">
-        <v>54.40005058276969</v>
+        <v>56.43011293980683</v>
       </c>
       <c r="H40" t="n">
-        <v>54.40005058276969</v>
+        <v>56.43011293980683</v>
       </c>
       <c r="I40" t="n">
-        <v>54.40005058276969</v>
+        <v>56.43011293980683</v>
       </c>
       <c r="J40" t="n">
-        <v>54.40005058276969</v>
+        <v>56.43011293980683</v>
       </c>
       <c r="K40" t="n">
-        <v>66.66635195688838</v>
+        <v>68.69641431392552</v>
       </c>
       <c r="L40" t="n">
-        <v>138.166609712444</v>
+        <v>140.1966720694811</v>
       </c>
       <c r="M40" t="n">
-        <v>224.1465060621599</v>
+        <v>226.176568419197</v>
       </c>
       <c r="N40" t="n">
-        <v>313.2232545460377</v>
+        <v>315.2533169030748</v>
       </c>
       <c r="O40" t="n">
-        <v>380.1634527050002</v>
+        <v>382.1935150620374</v>
       </c>
       <c r="P40" t="n">
-        <v>414.219875112277</v>
+        <v>416.2499374693141</v>
       </c>
       <c r="Q40" t="n">
-        <v>414.219875112277</v>
+        <v>416.2499374693141</v>
       </c>
       <c r="R40" t="n">
-        <v>416.2499374693143</v>
+        <v>416.2499374693141</v>
       </c>
       <c r="S40" t="n">
-        <v>389.9122497813851</v>
+        <v>389.912249781385</v>
       </c>
       <c r="T40" t="n">
-        <v>354.4324010781495</v>
+        <v>354.4324010781494</v>
       </c>
       <c r="U40" t="n">
-        <v>259.6534991891587</v>
+        <v>259.6534991891585</v>
       </c>
       <c r="V40" t="n">
         <v>198.3121386987832</v>
@@ -7372,10 +7372,10 @@
         <v>103.4796410160074</v>
       </c>
       <c r="X40" t="n">
-        <v>69.20493823737941</v>
+        <v>69.20493823737939</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.39658501889383</v>
+        <v>42.39658501889385</v>
       </c>
     </row>
     <row r="41">
@@ -7388,46 +7388,46 @@
         <v>1161.477958309251</v>
       </c>
       <c r="C41" t="n">
-        <v>984.9358456855387</v>
+        <v>984.9358456855385</v>
       </c>
       <c r="D41" t="n">
         <v>818.8789481369215</v>
       </c>
       <c r="E41" t="n">
-        <v>626.0409364461941</v>
+        <v>626.0409364461942</v>
       </c>
       <c r="F41" t="n">
-        <v>408.7828967501603</v>
+        <v>408.7828967501605</v>
       </c>
       <c r="G41" t="n">
-        <v>184.414089471251</v>
+        <v>184.4140894712509</v>
       </c>
       <c r="H41" t="n">
         <v>42.39658501889385</v>
       </c>
       <c r="I41" t="n">
-        <v>49.4050713720141</v>
+        <v>49.40507137201418</v>
       </c>
       <c r="J41" t="n">
-        <v>92.54975393917164</v>
+        <v>225.444109709873</v>
       </c>
       <c r="K41" t="n">
-        <v>279.4890417337558</v>
+        <v>412.3833975044571</v>
       </c>
       <c r="L41" t="n">
-        <v>563.3728366686616</v>
+        <v>886.5535125790158</v>
       </c>
       <c r="M41" t="n">
-        <v>894.4605509431037</v>
+        <v>1217.641226853458</v>
       </c>
       <c r="N41" t="n">
-        <v>1215.388435583785</v>
+        <v>1538.569111494139</v>
       </c>
       <c r="O41" t="n">
-        <v>1472.303185243806</v>
+        <v>1795.48386115416</v>
       </c>
       <c r="P41" t="n">
-        <v>1844.921507117477</v>
+        <v>1977.815862888178</v>
       </c>
       <c r="Q41" t="n">
         <v>2037.560201164089</v>
@@ -7442,16 +7442,16 @@
         <v>2089.269936615628</v>
       </c>
       <c r="U41" t="n">
-        <v>2029.444017389592</v>
+        <v>2029.444017389591</v>
       </c>
       <c r="V41" t="n">
-        <v>1891.74218169156</v>
+        <v>1891.742181691559</v>
       </c>
       <c r="W41" t="n">
-        <v>1731.821259652078</v>
+        <v>1731.821259652077</v>
       </c>
       <c r="X41" t="n">
-        <v>1551.363486975611</v>
+        <v>1551.36348697561</v>
       </c>
       <c r="Y41" t="n">
         <v>1354.920388420289</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>665.3033257186612</v>
+        <v>422.6401281060239</v>
       </c>
       <c r="C42" t="n">
-        <v>492.5502106404784</v>
+        <v>422.6401281060239</v>
       </c>
       <c r="D42" t="n">
-        <v>344.9619039994223</v>
+        <v>422.6401281060239</v>
       </c>
       <c r="E42" t="n">
-        <v>187.352375002277</v>
+        <v>265.0305991088786</v>
       </c>
       <c r="F42" t="n">
-        <v>42.39658501889385</v>
+        <v>120.0748091254954</v>
       </c>
       <c r="G42" t="n">
-        <v>42.39658501889385</v>
+        <v>120.0748091254954</v>
       </c>
       <c r="H42" t="n">
-        <v>42.39658501889385</v>
+        <v>120.0748091254954</v>
       </c>
       <c r="I42" t="n">
         <v>42.39658501889385</v>
@@ -7512,28 +7512,28 @@
         <v>2119.829250944692</v>
       </c>
       <c r="R42" t="n">
-        <v>2119.829250944692</v>
+        <v>2080.298308534401</v>
       </c>
       <c r="S42" t="n">
-        <v>2119.829250944692</v>
+        <v>1914.862579410863</v>
       </c>
       <c r="T42" t="n">
-        <v>1958.274854536262</v>
+        <v>1715.611656923625</v>
       </c>
       <c r="U42" t="n">
-        <v>1731.36694635206</v>
+        <v>1488.703748739422</v>
       </c>
       <c r="V42" t="n">
-        <v>1497.115702877661</v>
+        <v>1254.452505265023</v>
       </c>
       <c r="W42" t="n">
-        <v>1244.601211210994</v>
+        <v>1001.938013598356</v>
       </c>
       <c r="X42" t="n">
-        <v>1038.074312616571</v>
+        <v>795.4111150039339</v>
       </c>
       <c r="Y42" t="n">
-        <v>832.3458768402216</v>
+        <v>589.6826792275843</v>
       </c>
     </row>
     <row r="43">
@@ -7546,70 +7546,70 @@
         <v>42.39658501889385</v>
       </c>
       <c r="C43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="D43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="E43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="F43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="G43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="H43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="I43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="J43" t="n">
-        <v>56.43011293980757</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="K43" t="n">
-        <v>68.69641431392627</v>
+        <v>54.66288639301254</v>
       </c>
       <c r="L43" t="n">
-        <v>140.1966720694819</v>
+        <v>126.1631441485681</v>
       </c>
       <c r="M43" t="n">
-        <v>226.1765684191978</v>
+        <v>212.1430404982841</v>
       </c>
       <c r="N43" t="n">
-        <v>315.2533169030756</v>
+        <v>301.2197889821618</v>
       </c>
       <c r="O43" t="n">
-        <v>382.1935150620382</v>
+        <v>368.1599871411244</v>
       </c>
       <c r="P43" t="n">
-        <v>416.2499374693149</v>
+        <v>402.2164095484012</v>
       </c>
       <c r="Q43" t="n">
-        <v>416.2499374693149</v>
+        <v>402.2164095484012</v>
       </c>
       <c r="R43" t="n">
-        <v>416.2499374693149</v>
+        <v>416.2499374693143</v>
       </c>
       <c r="S43" t="n">
-        <v>389.9122497813856</v>
+        <v>389.9122497813851</v>
       </c>
       <c r="T43" t="n">
-        <v>354.43240107815</v>
+        <v>354.4324010781495</v>
       </c>
       <c r="U43" t="n">
-        <v>259.653499189159</v>
+        <v>259.6534991891587</v>
       </c>
       <c r="V43" t="n">
-        <v>198.3121386987835</v>
+        <v>198.3121386987833</v>
       </c>
       <c r="W43" t="n">
-        <v>103.4796410160076</v>
+        <v>103.4796410160075</v>
       </c>
       <c r="X43" t="n">
-        <v>69.20493823737951</v>
+        <v>69.20493823737942</v>
       </c>
       <c r="Y43" t="n">
         <v>42.39658501889385</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1161.47795830925</v>
+        <v>1161.477958309251</v>
       </c>
       <c r="C44" t="n">
-        <v>984.9358456855379</v>
+        <v>984.9358456855385</v>
       </c>
       <c r="D44" t="n">
-        <v>818.8789481369208</v>
+        <v>818.8789481369213</v>
       </c>
       <c r="E44" t="n">
-        <v>626.0409364461934</v>
+        <v>626.0409364461939</v>
       </c>
       <c r="F44" t="n">
-        <v>408.7828967501596</v>
+        <v>408.7828967501601</v>
       </c>
       <c r="G44" t="n">
         <v>184.414089471251</v>
@@ -7643,31 +7643,31 @@
         <v>42.39658501889385</v>
       </c>
       <c r="I44" t="n">
-        <v>42.39658501889385</v>
+        <v>49.40507137201412</v>
       </c>
       <c r="J44" t="n">
-        <v>85.54126758605139</v>
+        <v>92.54975393917167</v>
       </c>
       <c r="K44" t="n">
-        <v>272.4805553806355</v>
+        <v>279.4890417337558</v>
       </c>
       <c r="L44" t="n">
-        <v>556.3643503155413</v>
+        <v>753.6591568083143</v>
       </c>
       <c r="M44" t="n">
-        <v>887.4520645899834</v>
+        <v>1275.033191222409</v>
       </c>
       <c r="N44" t="n">
-        <v>1208.379949230664</v>
+        <v>1595.96107586309</v>
       </c>
       <c r="O44" t="n">
-        <v>1465.294698890686</v>
+        <v>1852.875825523111</v>
       </c>
       <c r="P44" t="n">
-        <v>1787.529542748526</v>
+        <v>2035.207827257129</v>
       </c>
       <c r="Q44" t="n">
-        <v>2037.560201164089</v>
+        <v>2094.95216553304</v>
       </c>
       <c r="R44" t="n">
         <v>2119.829250944692</v>
@@ -7682,16 +7682,16 @@
         <v>2029.444017389591</v>
       </c>
       <c r="V44" t="n">
-        <v>1891.742181691558</v>
+        <v>1891.742181691559</v>
       </c>
       <c r="W44" t="n">
         <v>1731.821259652077</v>
       </c>
       <c r="X44" t="n">
-        <v>1551.36348697561</v>
+        <v>1551.363486975611</v>
       </c>
       <c r="Y44" t="n">
-        <v>1354.920388420288</v>
+        <v>1354.920388420289</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>520.3475357352781</v>
+        <v>665.3033257186612</v>
       </c>
       <c r="C45" t="n">
-        <v>347.5944206570953</v>
+        <v>492.5502106404784</v>
       </c>
       <c r="D45" t="n">
-        <v>200.0061140160392</v>
+        <v>344.9619039994223</v>
       </c>
       <c r="E45" t="n">
-        <v>42.39658501889385</v>
+        <v>187.352375002277</v>
       </c>
       <c r="F45" t="n">
         <v>42.39658501889385</v>
@@ -7725,7 +7725,7 @@
         <v>42.39658501889385</v>
       </c>
       <c r="J45" t="n">
-        <v>75.87530756710876</v>
+        <v>75.87530756710879</v>
       </c>
       <c r="K45" t="n">
         <v>259.7013900467627</v>
@@ -7752,25 +7752,25 @@
         <v>2119.829250944692</v>
       </c>
       <c r="S45" t="n">
-        <v>2012.569987040117</v>
+        <v>2119.829250944692</v>
       </c>
       <c r="T45" t="n">
-        <v>1813.319064552879</v>
+        <v>1958.274854536262</v>
       </c>
       <c r="U45" t="n">
-        <v>1586.411156368677</v>
+        <v>1731.36694635206</v>
       </c>
       <c r="V45" t="n">
-        <v>1352.159912894278</v>
+        <v>1497.115702877661</v>
       </c>
       <c r="W45" t="n">
-        <v>1099.645421227611</v>
+        <v>1244.601211210994</v>
       </c>
       <c r="X45" t="n">
-        <v>893.1185226331881</v>
+        <v>1038.074312616571</v>
       </c>
       <c r="Y45" t="n">
-        <v>687.3900868568386</v>
+        <v>832.3458768402216</v>
       </c>
     </row>
     <row r="46">
@@ -7789,64 +7789,64 @@
         <v>42.39658501889385</v>
       </c>
       <c r="E46" t="n">
-        <v>56.43011293980769</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="F46" t="n">
-        <v>56.43011293980769</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="G46" t="n">
-        <v>56.43011293980769</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="H46" t="n">
-        <v>56.43011293980769</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="I46" t="n">
-        <v>56.43011293980769</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="J46" t="n">
-        <v>56.43011293980769</v>
+        <v>42.39658501889385</v>
       </c>
       <c r="K46" t="n">
-        <v>68.69641431392638</v>
+        <v>54.66288639301254</v>
       </c>
       <c r="L46" t="n">
-        <v>140.196672069482</v>
+        <v>126.1631441485681</v>
       </c>
       <c r="M46" t="n">
-        <v>226.1765684191979</v>
+        <v>212.1430404982841</v>
       </c>
       <c r="N46" t="n">
-        <v>315.2533169030757</v>
+        <v>301.2197889821618</v>
       </c>
       <c r="O46" t="n">
-        <v>382.1935150620383</v>
+        <v>368.1599871411244</v>
       </c>
       <c r="P46" t="n">
-        <v>416.2499374693151</v>
+        <v>402.2164095484012</v>
       </c>
       <c r="Q46" t="n">
-        <v>416.2499374693151</v>
+        <v>402.2164095484012</v>
       </c>
       <c r="R46" t="n">
-        <v>416.2499374693151</v>
+        <v>416.2499374693147</v>
       </c>
       <c r="S46" t="n">
-        <v>389.9122497813858</v>
+        <v>389.9122497813854</v>
       </c>
       <c r="T46" t="n">
-        <v>354.4324010781501</v>
+        <v>354.4324010781498</v>
       </c>
       <c r="U46" t="n">
-        <v>259.6534991891591</v>
+        <v>259.6534991891589</v>
       </c>
       <c r="V46" t="n">
-        <v>198.3121386987836</v>
+        <v>198.3121386987834</v>
       </c>
       <c r="W46" t="n">
-        <v>103.4796410160077</v>
+        <v>103.4796410160076</v>
       </c>
       <c r="X46" t="n">
-        <v>69.20493823737954</v>
+        <v>69.20493823737948</v>
       </c>
       <c r="Y46" t="n">
         <v>42.39658501889385</v>
@@ -8453,25 +8453,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>229.442370172687</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>244.7270199995685</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>239.4423428004218</v>
+        <v>234.7826076001403</v>
       </c>
       <c r="N8" t="n">
-        <v>237.9323098689381</v>
+        <v>238.5325024105071</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>239.2005215399755</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>240.3069362652187</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8538,16 +8538,16 @@
         <v>141.8771023936142</v>
       </c>
       <c r="M9" t="n">
-        <v>153.4354484777988</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9129346850809</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>153.8861037371642</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>145.4798126328029</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8772,22 +8772,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>74.53612032297789</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4897067999981</v>
+        <v>480.2621525678429</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>243.9685783174275</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.8822851524009</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,22 +9003,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.31778529118179</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>89.36093489747176</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>484.3332662999999</v>
+        <v>85.9627264392732</v>
       </c>
       <c r="N15" t="n">
-        <v>480.2621525678429</v>
+        <v>480.262152567843</v>
       </c>
       <c r="O15" t="n">
-        <v>230.7460752455253</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.31778529118179</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.36093489747176</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.2621525678429</v>
+        <v>81.89161270711628</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>269.9286366761433</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.882285152401</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9483,10 +9483,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>104.9015133477528</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>203.5608205321552</v>
       </c>
       <c r="N21" t="n">
         <v>480.262152567843</v>
@@ -9714,25 +9714,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.31778529118179</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>89.36093489747176</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>290.5844249433629</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.2621525678428</v>
+        <v>480.262152567843</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>269.9286366761431</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>100.882285152401</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>131.1346767540256</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10905,7 +10905,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155965</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540251</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.9000707397747</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>245.1687564273223</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>234.7883935029781</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>261.3016965036671</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.5171841359672</v>
       </c>
       <c r="H11" t="n">
-        <v>174.206280642939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.31278578528118</v>
+        <v>63.31278578528117</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.86704101869466</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.6197249636246</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.716882270899</v>
       </c>
       <c r="W11" t="n">
-        <v>228.7137777489343</v>
+        <v>170.0116165456663</v>
       </c>
       <c r="X11" t="n">
-        <v>249.0452598795491</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.38293025789875</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.38293025789964</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.9000707397748</v>
+        <v>261.9000707397747</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>245.1687564273223</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.7883935029781</v>
       </c>
       <c r="E14" t="n">
-        <v>43.003998367877</v>
+        <v>77.23815041543121</v>
       </c>
       <c r="F14" t="n">
-        <v>285.4775242289206</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>210.9893943376807</v>
       </c>
       <c r="I14" t="n">
-        <v>63.31278578528124</v>
+        <v>63.31278578528118</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.86704101869474</v>
+        <v>98.86704101869468</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.7137777489343</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11.38293025789887</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>11.38293025790085</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>284254.7322145092</v>
       </c>
       <c r="D2" t="n">
-        <v>284871.7930152278</v>
+        <v>284871.7930152277</v>
       </c>
       <c r="E2" t="n">
         <v>244180.3862541736</v>
       </c>
       <c r="F2" t="n">
-        <v>244180.3862541736</v>
+        <v>244180.3862541734</v>
       </c>
       <c r="G2" t="n">
+        <v>284871.7930152277</v>
+      </c>
+      <c r="H2" t="n">
         <v>284871.7930152276</v>
       </c>
-      <c r="H2" t="n">
-        <v>284871.7930152275</v>
-      </c>
       <c r="I2" t="n">
-        <v>284871.7930152275</v>
+        <v>284871.7930152276</v>
       </c>
       <c r="J2" t="n">
         <v>284871.7930152274</v>
       </c>
       <c r="K2" t="n">
-        <v>284871.7930152274</v>
+        <v>284871.7930152275</v>
       </c>
       <c r="L2" t="n">
-        <v>284871.7930152276</v>
+        <v>284871.7930152275</v>
       </c>
       <c r="M2" t="n">
-        <v>284871.7930152276</v>
+        <v>284871.7930152278</v>
       </c>
       <c r="N2" t="n">
         <v>284871.7930152277</v>
       </c>
       <c r="O2" t="n">
+        <v>284871.7930152277</v>
+      </c>
+      <c r="P2" t="n">
         <v>284871.7930152278</v>
-      </c>
-      <c r="P2" t="n">
-        <v>284871.7930152277</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81518.97919306869</v>
+        <v>81518.97919306863</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84593.559117292</v>
+        <v>84593.55911729184</v>
       </c>
       <c r="M3" t="n">
-        <v>95091.50726649456</v>
+        <v>95091.50726649461</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32374.87070031202</v>
+        <v>32374.87070031212</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>395485.8028489571</v>
       </c>
       <c r="D4" t="n">
-        <v>393847.8990046541</v>
+        <v>393847.899004654</v>
       </c>
       <c r="E4" t="n">
         <v>241772.3537560184</v>
@@ -26439,13 +26439,13 @@
         <v>307870.5450949924</v>
       </c>
       <c r="J4" t="n">
-        <v>303791.0429311401</v>
+        <v>303791.0429311402</v>
       </c>
       <c r="K4" t="n">
         <v>303791.0429311403</v>
       </c>
       <c r="L4" t="n">
-        <v>303711.4954875484</v>
+        <v>303711.4954875485</v>
       </c>
       <c r="M4" t="n">
         <v>302862.1708860868</v>
@@ -26454,7 +26454,7 @@
         <v>302862.1708860868</v>
       </c>
       <c r="O4" t="n">
-        <v>302862.1708860867</v>
+        <v>302862.1708860868</v>
       </c>
       <c r="P4" t="n">
         <v>302862.1708860868</v>
@@ -26479,7 +26479,7 @@
         <v>38891.63653853857</v>
       </c>
       <c r="F5" t="n">
-        <v>38891.63653853856</v>
+        <v>38891.63653853857</v>
       </c>
       <c r="G5" t="n">
         <v>47458.16036576618</v>
@@ -26488,13 +26488,13 @@
         <v>47458.16036576618</v>
       </c>
       <c r="I5" t="n">
-        <v>47458.16036576617</v>
+        <v>47458.16036576618</v>
       </c>
       <c r="J5" t="n">
-        <v>58618.54786775328</v>
+        <v>58618.54786775327</v>
       </c>
       <c r="K5" t="n">
-        <v>58618.54786775327</v>
+        <v>58618.54786775329</v>
       </c>
       <c r="L5" t="n">
         <v>58038.47420576226</v>
@@ -26503,13 +26503,13 @@
         <v>51206.73808907485</v>
       </c>
       <c r="N5" t="n">
-        <v>51206.73808907483</v>
+        <v>51206.73808907485</v>
       </c>
       <c r="O5" t="n">
+        <v>51206.73808907485</v>
+      </c>
+      <c r="P5" t="n">
         <v>51206.73808907484</v>
-      </c>
-      <c r="P5" t="n">
-        <v>51206.73808907483</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144858.6706344479</v>
+        <v>-144863.078211596</v>
       </c>
       <c r="C6" t="n">
-        <v>-144858.670634448</v>
+        <v>-144863.0782115959</v>
       </c>
       <c r="D6" t="n">
-        <v>-148121.2115033712</v>
+        <v>-148121.2115033713</v>
       </c>
       <c r="E6" t="n">
-        <v>-360487.2962912272</v>
+        <v>-360777.9491966633</v>
       </c>
       <c r="F6" t="n">
-        <v>-36483.6040403833</v>
+        <v>-36774.25694581967</v>
       </c>
       <c r="G6" t="n">
-        <v>-151975.8916385997</v>
+        <v>-151975.8916385995</v>
       </c>
       <c r="H6" t="n">
-        <v>-70456.91244553102</v>
+        <v>-70456.91244553096</v>
       </c>
       <c r="I6" t="n">
-        <v>-70456.91244553102</v>
+        <v>-70456.91244553096</v>
       </c>
       <c r="J6" t="n">
-        <v>-187369.6703281552</v>
+        <v>-187369.6703281553</v>
       </c>
       <c r="K6" t="n">
-        <v>-77537.79778366614</v>
+        <v>-77537.79778366609</v>
       </c>
       <c r="L6" t="n">
         <v>-161471.7357953751</v>
       </c>
       <c r="M6" t="n">
-        <v>-164288.6232264286</v>
+        <v>-164288.6232264285</v>
       </c>
       <c r="N6" t="n">
-        <v>-69197.11595993394</v>
+        <v>-69197.11595993396</v>
       </c>
       <c r="O6" t="n">
-        <v>-101571.9866602457</v>
+        <v>-101571.9866602461</v>
       </c>
       <c r="P6" t="n">
-        <v>-69197.11595993394</v>
+        <v>-69197.11595993378</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>223.7150632429561</v>
       </c>
       <c r="J2" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="K2" t="n">
         <v>142.367312366726</v>
       </c>
       <c r="L2" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="M2" t="n">
         <v>192.2084041814675</v>
@@ -26722,7 +26722,7 @@
         <v>192.2084041814675</v>
       </c>
       <c r="O2" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="P2" t="n">
         <v>192.2084041814674</v>
@@ -26771,13 +26771,13 @@
         <v>129.6589515405382</v>
       </c>
       <c r="N3" t="n">
-        <v>129.6589515405382</v>
+        <v>129.6589515405381</v>
       </c>
       <c r="O3" t="n">
-        <v>129.6589515405382</v>
+        <v>129.6589515405381</v>
       </c>
       <c r="P3" t="n">
-        <v>129.6589515405382</v>
+        <v>129.6589515405381</v>
       </c>
     </row>
     <row r="4">
@@ -26808,22 +26808,22 @@
         <v>424.7383810922757</v>
       </c>
       <c r="I4" t="n">
-        <v>424.7383810922756</v>
+        <v>424.7383810922757</v>
       </c>
       <c r="J4" t="n">
-        <v>720.7780450791327</v>
+        <v>720.7780450791324</v>
       </c>
       <c r="K4" t="n">
-        <v>720.7780450791325</v>
+        <v>720.7780450791328</v>
       </c>
       <c r="L4" t="n">
-        <v>705.9232796753016</v>
+        <v>705.9232796753018</v>
       </c>
       <c r="M4" t="n">
+        <v>529.9573127361732</v>
+      </c>
+      <c r="N4" t="n">
         <v>529.9573127361731</v>
-      </c>
-      <c r="N4" t="n">
-        <v>529.9573127361729</v>
       </c>
       <c r="O4" t="n">
         <v>529.9573127361731</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.8987239913359</v>
+        <v>101.8987239913358</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.46858837539011</v>
+        <v>40.46858837539018</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.741948896615</v>
+        <v>105.7419488966148</v>
       </c>
       <c r="M2" t="n">
-        <v>45.99786690946243</v>
+        <v>45.99786690946252</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.46858837539003</v>
+        <v>40.46858837539015</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>296.039663986857</v>
+        <v>296.0396639868567</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>233.9176487493163</v>
+        <v>233.9176487493162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.8987239913359</v>
+        <v>101.8987239913358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.46858837539011</v>
+        <v>40.46858837539018</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>394.869063247409</v>
+        <v>392.4390980767099</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>190.3695424642931</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>126.9960572970461</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -27913,10 +27913,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>338.1053167674227</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>356.0068337273385</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27932,7 +27932,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>156.1708185235701</v>
+        <v>157.9415065597067</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -27944,10 +27944,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>121.1684448012114</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>95.60775011830185</v>
       </c>
       <c r="I9" t="n">
         <v>71.64877806164074</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>79.84021435726029</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
         <v>168.9616139056444</v>
@@ -27995,7 +27995,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>191.377552240784</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28026,13 +28026,13 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>148.469638955225</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>138.9037813935727</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>73.98407952394801</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>64.90593447201725</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>158.5363822659514</v>
       </c>
       <c r="S10" t="n">
-        <v>222.3574069614225</v>
+        <v>209.1929739077307</v>
       </c>
       <c r="T10" t="n">
         <v>228.3324659915077</v>
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>121.8163392516203</v>
       </c>
       <c r="C12" t="n">
-        <v>91.66024194585115</v>
+        <v>121.8163392516203</v>
       </c>
       <c r="D12" t="n">
         <v>121.8163392516203</v>
       </c>
       <c r="E12" t="n">
-        <v>121.8163392516203</v>
+        <v>77.1349851011435</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7690342835265</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.90144186553559</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.37939374214915</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>121.8163392516203</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>121.8163392516203</v>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>121.8163392516203</v>
       </c>
       <c r="Y12" t="n">
         <v>121.8163392516203</v>
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>121.8163392516203</v>
       </c>
       <c r="C15" t="n">
-        <v>121.8163392516203</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>121.8163392516203</v>
       </c>
       <c r="E15" t="n">
-        <v>77.13498510114417</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7690342835265</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28451,13 +28451,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.37939374214915</v>
+        <v>46.74534455976599</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>121.8163392516203</v>
       </c>
       <c r="T15" t="n">
-        <v>121.8163392516203</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>121.8163392516203</v>
@@ -28649,10 +28649,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>24.67971423633502</v>
       </c>
       <c r="G18" t="n">
         <v>135.7443211394645</v>
@@ -28697,7 +28697,7 @@
         <v>197.2584132623653</v>
       </c>
       <c r="U18" t="n">
-        <v>92.36134377211738</v>
+        <v>223.7150632429561</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>146.7272056220577</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>72.30839138465164</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.18219819322691</v>
       </c>
       <c r="R19" t="n">
         <v>162.8781448120856</v>
@@ -28773,7 +28773,7 @@
         <v>218.2827149925174</v>
       </c>
       <c r="T19" t="n">
-        <v>159.9509696577448</v>
+        <v>223.7150632429561</v>
       </c>
       <c r="U19" t="n">
         <v>223.7150632429561</v>
@@ -28788,7 +28788,7 @@
         <v>223.7150632429561</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>22.49399070467848</v>
       </c>
     </row>
     <row r="20">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.7443211394645</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7690342835265</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.90144186553559</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,25 +28925,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.37939374214915</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7813718323031</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2584132623653</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>223.7150632429561</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>24.67971423633472</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>89.43463356205606</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.6557777060186</v>
       </c>
       <c r="H22" t="n">
         <v>159.5552776711029</v>
@@ -29010,13 +29010,13 @@
         <v>218.2827149925174</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7150632429561</v>
+        <v>27.4603800798663</v>
       </c>
       <c r="U22" t="n">
         <v>223.7150632429561</v>
       </c>
       <c r="V22" t="n">
-        <v>195.1161577858849</v>
+        <v>223.7150632429561</v>
       </c>
       <c r="W22" t="n">
         <v>223.7150632429561</v>
@@ -29123,13 +29123,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.59943282803282</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>107.7690342835265</v>
@@ -29171,10 +29171,10 @@
         <v>197.2584132623653</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>223.7150632429561</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>160.4240353757996</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>218.2827149925174</v>
       </c>
       <c r="T25" t="n">
-        <v>223.7150632429561</v>
+        <v>27.4603800798663</v>
       </c>
       <c r="U25" t="n">
         <v>223.7150632429561</v>
@@ -29259,7 +29259,7 @@
         <v>223.7150632429561</v>
       </c>
       <c r="X25" t="n">
-        <v>27.46038007986635</v>
+        <v>223.7150632429561</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="C26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="E26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="F26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="G26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="H26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="I26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="J26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="K26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="L26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="M26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="N26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="O26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.3673123667249</v>
       </c>
       <c r="P26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="R26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="S26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="T26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="U26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="V26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="W26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="X26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
     </row>
     <row r="27">
@@ -29360,13 +29360,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>142.3673123667259</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>142.3673123667259</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>129.4900227984842</v>
+        <v>135.7443211394645</v>
       </c>
       <c r="H27" t="n">
         <v>107.7690342835265</v>
@@ -29399,13 +29399,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.37939374214915</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>58.73362028359628</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>142.367312366726</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="C28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="D28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="E28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="F28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="G28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="I28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="J28" t="n">
-        <v>81.18365658382042</v>
+        <v>72.30839138465164</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.875265199167416</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="O28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="P28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="R28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="T28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="U28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="V28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="W28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="X28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.3673123667259</v>
+        <v>142.367312366726</v>
       </c>
     </row>
     <row r="29">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>142.367312366726</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>142.367312366726</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>142.367312366726</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.367312366726</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7443211394645</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7690342835265</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.90144186553559</v>
+        <v>29.42587421409436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,10 +29639,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>136.1130140257455</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.367312366726</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29697,22 +29697,22 @@
         <v>142.367312366726</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>142.367312366726</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>21.00145839059209</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>81.18365658381902</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>142.367312366726</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.367312366726</v>
+        <v>60.18219819322691</v>
       </c>
       <c r="R31" t="n">
         <v>142.367312366726</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="C32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="D32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="E32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="F32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="G32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="H32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="I32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="J32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="K32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="L32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="M32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="N32" t="n">
-        <v>52.80264405073734</v>
+        <v>146.210537272005</v>
       </c>
       <c r="O32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="P32" t="n">
-        <v>146.2105372720051</v>
+        <v>52.80264405073984</v>
       </c>
       <c r="Q32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="R32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="S32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="T32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="U32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="V32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="W32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="X32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="Y32" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
     </row>
     <row r="33">
@@ -29831,19 +29831,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>121.8035729879265</v>
+        <v>146.210537272005</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7443211394645</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7690342835265</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>76.90144186553559</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.37939374214915</v>
       </c>
       <c r="S33" t="n">
-        <v>146.2105372720051</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>16.54700608719867</v>
       </c>
       <c r="U33" t="n">
-        <v>146.2105372720051</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="C34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="D34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="E34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>146.210537272005</v>
       </c>
       <c r="G34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="H34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="I34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="J34" t="n">
-        <v>72.30839138465164</v>
+        <v>146.210537272005</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>146.210537272005</v>
       </c>
       <c r="L34" t="n">
-        <v>146.2105372720051</v>
+        <v>3.071675931373221</v>
       </c>
       <c r="M34" t="n">
-        <v>146.2105372720051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.84313948769807</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.18219819322691</v>
+        <v>146.210537272005</v>
       </c>
       <c r="R34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="S34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="T34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="U34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="V34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="W34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="X34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.2105372720051</v>
+        <v>146.210537272005</v>
       </c>
     </row>
     <row r="35">
@@ -30007,28 +30007,28 @@
         <v>192.2084041814675</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>134.2367230007084</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>192.2084041814675</v>
-      </c>
-      <c r="K35" t="n">
-        <v>134.2367230007082</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>192.2084041814675</v>
@@ -30074,16 +30074,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7690342835265</v>
       </c>
       <c r="I36" t="n">
-        <v>50.69694348576021</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7813718323031</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>192.2084041814675</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>155.4114531324549</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>192.2084041814675</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>159.5552776711029</v>
       </c>
       <c r="I37" t="n">
-        <v>160.9024863502526</v>
+        <v>160.9024863502527</v>
       </c>
       <c r="J37" t="n">
         <v>72.30839138465164</v>
@@ -30244,7 +30244,7 @@
         <v>192.2084041814675</v>
       </c>
       <c r="J38" t="n">
-        <v>134.2367230007071</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30262,7 +30262,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>134.2367230007084</v>
       </c>
       <c r="Q38" t="n">
         <v>192.2084041814675</v>
@@ -30320,7 +30320,7 @@
         <v>107.7690342835265</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.90144186553559</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,10 +30350,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7813718323031</v>
+        <v>86.27192221100447</v>
       </c>
       <c r="T39" t="n">
-        <v>191.6003964257054</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>192.2084041814675</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30387,7 +30387,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>161.1499049013941</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.18219819322691</v>
+        <v>60.18219819322692</v>
       </c>
       <c r="R40" t="n">
-        <v>164.9287128494969</v>
+        <v>162.8781448120856</v>
       </c>
       <c r="S40" t="n">
         <v>192.2084041814675</v>
@@ -30457,37 +30457,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="C41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="D41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="E41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="F41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="G41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="H41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="I41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>134.2367230007084</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>192.2084041814674</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.2367230007083</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="S41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="T41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="U41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="V41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="W41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="X41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
     </row>
     <row r="42">
@@ -30539,10 +30539,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>107.7690342835265</v>
       </c>
       <c r="I42" t="n">
-        <v>76.90144186553559</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.37939374214915</v>
+        <v>38.24376075596049</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7813718323031</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>37.31956081801968</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>181.511833659398</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.18219819322691</v>
+        <v>60.18219819322692</v>
       </c>
       <c r="R43" t="n">
-        <v>162.8781448120856</v>
+        <v>177.0534255402806</v>
       </c>
       <c r="S43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="T43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="U43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="V43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="W43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="X43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.2084041814674</v>
+        <v>192.2084041814675</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>192.2084041814674</v>
       </c>
       <c r="I44" t="n">
-        <v>185.1291250369015</v>
+        <v>192.2084041814674</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30724,10 +30724,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>192.2084041814674</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>192.2084041814674</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>141.3160021452746</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>192.2084041814674</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>192.2084041814674</v>
+        <v>134.2367230007087</v>
       </c>
       <c r="S44" t="n">
         <v>192.2084041814674</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.7443211394645</v>
@@ -30824,10 +30824,10 @@
         <v>77.37939374214915</v>
       </c>
       <c r="S45" t="n">
-        <v>57.59470056677345</v>
+        <v>163.7813718323031</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>37.31956081801968</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>161.149904901395</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.18219819322691</v>
+        <v>60.18219819322692</v>
       </c>
       <c r="R46" t="n">
-        <v>162.8781448120856</v>
+        <v>177.053425540281</v>
       </c>
       <c r="S46" t="n">
         <v>192.2084041814674</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5212420162433692</v>
+        <v>0.5212420162433691</v>
       </c>
       <c r="H11" t="n">
-        <v>5.338169798852407</v>
+        <v>5.338169798852405</v>
       </c>
       <c r="I11" t="n">
         <v>20.09518283122251</v>
       </c>
       <c r="J11" t="n">
-        <v>44.2397645761357</v>
+        <v>44.23976457613569</v>
       </c>
       <c r="K11" t="n">
-        <v>66.30393912371753</v>
+        <v>66.30393912371751</v>
       </c>
       <c r="L11" t="n">
-        <v>82.25589947832556</v>
+        <v>82.25589947832555</v>
       </c>
       <c r="M11" t="n">
-        <v>91.52553718469358</v>
+        <v>91.52553718469356</v>
       </c>
       <c r="N11" t="n">
-        <v>93.00651606334506</v>
+        <v>93.00651606334503</v>
       </c>
       <c r="O11" t="n">
-        <v>87.82341576432505</v>
+        <v>87.82341576432503</v>
       </c>
       <c r="P11" t="n">
-        <v>74.95525348831686</v>
+        <v>74.95525348831684</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.28827378160118</v>
+        <v>56.28827378160117</v>
       </c>
       <c r="R11" t="n">
-        <v>32.74246880284758</v>
+        <v>32.74246880284757</v>
       </c>
       <c r="S11" t="n">
         <v>11.87780244514579</v>
@@ -31792,7 +31792,7 @@
         <v>2.28173692610535</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04169936129946953</v>
+        <v>0.04169936129946952</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2788890655777614</v>
+        <v>0.2788890655777613</v>
       </c>
       <c r="H12" t="n">
         <v>2.693481238606275</v>
       </c>
       <c r="I12" t="n">
-        <v>9.602101599936084</v>
+        <v>9.602101599936082</v>
       </c>
       <c r="J12" t="n">
         <v>26.34890070881824</v>
       </c>
       <c r="K12" t="n">
-        <v>45.03446810252826</v>
+        <v>45.03446810252824</v>
       </c>
       <c r="L12" t="n">
-        <v>60.55439996239947</v>
+        <v>60.55439996239946</v>
       </c>
       <c r="M12" t="n">
-        <v>70.6641285895933</v>
+        <v>70.66412858959329</v>
       </c>
       <c r="N12" t="n">
-        <v>72.53439780568279</v>
+        <v>72.53439780568277</v>
       </c>
       <c r="O12" t="n">
-        <v>66.35480324735448</v>
+        <v>66.35480324735447</v>
       </c>
       <c r="P12" t="n">
-        <v>53.25557954879201</v>
+        <v>53.25557954879199</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.59994458147004</v>
+        <v>35.59994458147003</v>
       </c>
       <c r="R12" t="n">
         <v>17.31558601894207</v>
       </c>
       <c r="S12" t="n">
-        <v>5.180242073341311</v>
+        <v>5.18024207334131</v>
       </c>
       <c r="T12" t="n">
         <v>1.124118645903345</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01834796484064221</v>
+        <v>0.0183479648406422</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2338112240894951</v>
+        <v>0.233811224089495</v>
       </c>
       <c r="H13" t="n">
-        <v>2.078794337813876</v>
+        <v>2.078794337813875</v>
       </c>
       <c r="I13" t="n">
-        <v>7.031341175345909</v>
+        <v>7.031341175345907</v>
       </c>
       <c r="J13" t="n">
         <v>16.5304535431273</v>
       </c>
       <c r="K13" t="n">
-        <v>27.16461312603406</v>
+        <v>27.16461312603405</v>
       </c>
       <c r="L13" t="n">
-        <v>34.76135235236003</v>
+        <v>34.76135235236002</v>
       </c>
       <c r="M13" t="n">
-        <v>36.65097215431967</v>
+        <v>36.65097215431966</v>
       </c>
       <c r="N13" t="n">
-        <v>35.77949395544067</v>
+        <v>35.77949395544066</v>
       </c>
       <c r="O13" t="n">
-        <v>33.04815374675883</v>
+        <v>33.04815374675882</v>
       </c>
       <c r="P13" t="n">
         <v>28.2784047753331</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.57850168262127</v>
+        <v>19.57850168262126</v>
       </c>
       <c r="R13" t="n">
         <v>10.51300285769675</v>
       </c>
       <c r="S13" t="n">
-        <v>4.074691968905109</v>
+        <v>4.074691968905108</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9990115938369333</v>
+        <v>0.9990115938369331</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01275333949579066</v>
+        <v>0.01275333949579065</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5212420162433692</v>
+        <v>0.5212420162433691</v>
       </c>
       <c r="H14" t="n">
-        <v>5.338169798852407</v>
+        <v>5.338169798852405</v>
       </c>
       <c r="I14" t="n">
         <v>20.09518283122251</v>
       </c>
       <c r="J14" t="n">
-        <v>44.2397645761357</v>
+        <v>44.23976457613569</v>
       </c>
       <c r="K14" t="n">
-        <v>66.30393912371753</v>
+        <v>66.30393912371751</v>
       </c>
       <c r="L14" t="n">
-        <v>82.25589947832556</v>
+        <v>82.25589947832555</v>
       </c>
       <c r="M14" t="n">
-        <v>91.52553718469358</v>
+        <v>91.52553718469356</v>
       </c>
       <c r="N14" t="n">
-        <v>93.00651606334506</v>
+        <v>93.00651606334503</v>
       </c>
       <c r="O14" t="n">
-        <v>87.82341576432505</v>
+        <v>87.82341576432503</v>
       </c>
       <c r="P14" t="n">
-        <v>74.95525348831686</v>
+        <v>74.95525348831684</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.28827378160118</v>
+        <v>56.28827378160117</v>
       </c>
       <c r="R14" t="n">
-        <v>32.74246880284758</v>
+        <v>32.74246880284757</v>
       </c>
       <c r="S14" t="n">
         <v>11.87780244514579</v>
@@ -32029,7 +32029,7 @@
         <v>2.28173692610535</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04169936129946953</v>
+        <v>0.04169936129946952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2788890655777614</v>
+        <v>0.2788890655777613</v>
       </c>
       <c r="H15" t="n">
         <v>2.693481238606275</v>
       </c>
       <c r="I15" t="n">
-        <v>9.602101599936084</v>
+        <v>9.602101599936082</v>
       </c>
       <c r="J15" t="n">
         <v>26.34890070881824</v>
       </c>
       <c r="K15" t="n">
-        <v>45.03446810252826</v>
+        <v>45.03446810252824</v>
       </c>
       <c r="L15" t="n">
-        <v>60.55439996239947</v>
+        <v>60.55439996239946</v>
       </c>
       <c r="M15" t="n">
-        <v>70.6641285895933</v>
+        <v>70.66412858959329</v>
       </c>
       <c r="N15" t="n">
-        <v>72.53439780568279</v>
+        <v>72.53439780568277</v>
       </c>
       <c r="O15" t="n">
-        <v>66.35480324735448</v>
+        <v>66.35480324735447</v>
       </c>
       <c r="P15" t="n">
-        <v>53.25557954879201</v>
+        <v>53.25557954879199</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.59994458147004</v>
+        <v>35.59994458147003</v>
       </c>
       <c r="R15" t="n">
         <v>17.31558601894207</v>
       </c>
       <c r="S15" t="n">
-        <v>5.180242073341311</v>
+        <v>5.18024207334131</v>
       </c>
       <c r="T15" t="n">
         <v>1.124118645903345</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01834796484064221</v>
+        <v>0.0183479648406422</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2338112240894951</v>
+        <v>0.233811224089495</v>
       </c>
       <c r="H16" t="n">
-        <v>2.078794337813876</v>
+        <v>2.078794337813875</v>
       </c>
       <c r="I16" t="n">
-        <v>7.031341175345909</v>
+        <v>7.031341175345907</v>
       </c>
       <c r="J16" t="n">
         <v>16.5304535431273</v>
       </c>
       <c r="K16" t="n">
-        <v>27.16461312603406</v>
+        <v>27.16461312603405</v>
       </c>
       <c r="L16" t="n">
-        <v>34.76135235236003</v>
+        <v>34.76135235236002</v>
       </c>
       <c r="M16" t="n">
-        <v>36.65097215431967</v>
+        <v>36.65097215431966</v>
       </c>
       <c r="N16" t="n">
-        <v>35.77949395544067</v>
+        <v>35.77949395544066</v>
       </c>
       <c r="O16" t="n">
-        <v>33.04815374675883</v>
+        <v>33.04815374675882</v>
       </c>
       <c r="P16" t="n">
         <v>28.2784047753331</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.57850168262127</v>
+        <v>19.57850168262126</v>
       </c>
       <c r="R16" t="n">
         <v>10.51300285769675</v>
       </c>
       <c r="S16" t="n">
-        <v>4.074691968905109</v>
+        <v>4.074691968905108</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9990115938369333</v>
+        <v>0.9990115938369331</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01275333949579066</v>
+        <v>0.01275333949579065</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5212420162433691</v>
+        <v>0.521242016243369</v>
       </c>
       <c r="H38" t="n">
-        <v>5.338169798852405</v>
+        <v>5.338169798852404</v>
       </c>
       <c r="I38" t="n">
-        <v>20.09518283122251</v>
+        <v>20.0951828312225</v>
       </c>
       <c r="J38" t="n">
-        <v>44.23976457613569</v>
+        <v>44.23976457613568</v>
       </c>
       <c r="K38" t="n">
-        <v>66.30393912371751</v>
+        <v>66.3039391237175</v>
       </c>
       <c r="L38" t="n">
-        <v>82.25589947832555</v>
+        <v>82.25589947832553</v>
       </c>
       <c r="M38" t="n">
-        <v>91.52553718469356</v>
+        <v>91.52553718469353</v>
       </c>
       <c r="N38" t="n">
-        <v>93.00651606334503</v>
+        <v>93.00651606334502</v>
       </c>
       <c r="O38" t="n">
-        <v>87.82341576432503</v>
+        <v>87.82341576432501</v>
       </c>
       <c r="P38" t="n">
-        <v>74.95525348831684</v>
+        <v>74.95525348831683</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.28827378160117</v>
+        <v>56.28827378160116</v>
       </c>
       <c r="R38" t="n">
-        <v>32.74246880284757</v>
+        <v>32.74246880284755</v>
       </c>
       <c r="S38" t="n">
-        <v>11.87780244514579</v>
+        <v>11.87780244514578</v>
       </c>
       <c r="T38" t="n">
-        <v>2.28173692610535</v>
+        <v>2.281736926105349</v>
       </c>
       <c r="U38" t="n">
         <v>0.04169936129946952</v>
@@ -33965,28 +33965,28 @@
         <v>0.2788890655777613</v>
       </c>
       <c r="H39" t="n">
-        <v>2.693481238606275</v>
+        <v>2.693481238606274</v>
       </c>
       <c r="I39" t="n">
-        <v>9.602101599936082</v>
+        <v>9.602101599936081</v>
       </c>
       <c r="J39" t="n">
-        <v>26.34890070881824</v>
+        <v>26.34890070881823</v>
       </c>
       <c r="K39" t="n">
         <v>45.03446810252824</v>
       </c>
       <c r="L39" t="n">
-        <v>60.55439996239946</v>
+        <v>60.55439996239944</v>
       </c>
       <c r="M39" t="n">
-        <v>70.66412858959329</v>
+        <v>70.66412858959328</v>
       </c>
       <c r="N39" t="n">
-        <v>72.53439780568277</v>
+        <v>72.53439780568276</v>
       </c>
       <c r="O39" t="n">
-        <v>66.35480324735447</v>
+        <v>66.35480324735445</v>
       </c>
       <c r="P39" t="n">
         <v>53.25557954879199</v>
@@ -33995,10 +33995,10 @@
         <v>35.59994458147003</v>
       </c>
       <c r="R39" t="n">
-        <v>17.31558601894207</v>
+        <v>17.31558601894206</v>
       </c>
       <c r="S39" t="n">
-        <v>5.18024207334131</v>
+        <v>5.180242073341308</v>
       </c>
       <c r="T39" t="n">
         <v>1.124118645903345</v>
@@ -34047,40 +34047,40 @@
         <v>2.078794337813875</v>
       </c>
       <c r="I40" t="n">
-        <v>7.031341175345907</v>
+        <v>7.031341175345906</v>
       </c>
       <c r="J40" t="n">
-        <v>16.5304535431273</v>
+        <v>16.53045354312729</v>
       </c>
       <c r="K40" t="n">
         <v>27.16461312603405</v>
       </c>
       <c r="L40" t="n">
-        <v>34.76135235236002</v>
+        <v>34.76135235236001</v>
       </c>
       <c r="M40" t="n">
-        <v>36.65097215431966</v>
+        <v>36.65097215431965</v>
       </c>
       <c r="N40" t="n">
-        <v>35.77949395544066</v>
+        <v>35.77949395544065</v>
       </c>
       <c r="O40" t="n">
-        <v>33.04815374675882</v>
+        <v>33.04815374675881</v>
       </c>
       <c r="P40" t="n">
-        <v>28.2784047753331</v>
+        <v>28.27840477533309</v>
       </c>
       <c r="Q40" t="n">
         <v>19.57850168262126</v>
       </c>
       <c r="R40" t="n">
-        <v>10.51300285769675</v>
+        <v>10.51300285769674</v>
       </c>
       <c r="S40" t="n">
-        <v>4.074691968905108</v>
+        <v>4.074691968905107</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9990115938369331</v>
+        <v>0.9990115938369328</v>
       </c>
       <c r="U40" t="n">
         <v>0.01275333949579065</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5212420162433691</v>
+        <v>0.521242016243369</v>
       </c>
       <c r="H41" t="n">
-        <v>5.338169798852405</v>
+        <v>5.338169798852404</v>
       </c>
       <c r="I41" t="n">
-        <v>20.09518283122251</v>
+        <v>20.0951828312225</v>
       </c>
       <c r="J41" t="n">
-        <v>44.23976457613569</v>
+        <v>44.23976457613568</v>
       </c>
       <c r="K41" t="n">
-        <v>66.30393912371751</v>
+        <v>66.3039391237175</v>
       </c>
       <c r="L41" t="n">
-        <v>82.25589947832555</v>
+        <v>82.25589947832553</v>
       </c>
       <c r="M41" t="n">
-        <v>91.52553718469356</v>
+        <v>91.52553718469353</v>
       </c>
       <c r="N41" t="n">
-        <v>93.00651606334503</v>
+        <v>93.00651606334502</v>
       </c>
       <c r="O41" t="n">
-        <v>87.82341576432503</v>
+        <v>87.82341576432501</v>
       </c>
       <c r="P41" t="n">
-        <v>74.95525348831684</v>
+        <v>74.95525348831683</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.28827378160117</v>
+        <v>56.28827378160116</v>
       </c>
       <c r="R41" t="n">
-        <v>32.74246880284757</v>
+        <v>32.74246880284755</v>
       </c>
       <c r="S41" t="n">
-        <v>11.87780244514579</v>
+        <v>11.87780244514578</v>
       </c>
       <c r="T41" t="n">
-        <v>2.28173692610535</v>
+        <v>2.281736926105349</v>
       </c>
       <c r="U41" t="n">
         <v>0.04169936129946952</v>
@@ -34202,28 +34202,28 @@
         <v>0.2788890655777613</v>
       </c>
       <c r="H42" t="n">
-        <v>2.693481238606275</v>
+        <v>2.693481238606274</v>
       </c>
       <c r="I42" t="n">
-        <v>9.602101599936082</v>
+        <v>9.602101599936081</v>
       </c>
       <c r="J42" t="n">
-        <v>26.34890070881824</v>
+        <v>26.34890070881823</v>
       </c>
       <c r="K42" t="n">
         <v>45.03446810252824</v>
       </c>
       <c r="L42" t="n">
-        <v>60.55439996239946</v>
+        <v>60.55439996239944</v>
       </c>
       <c r="M42" t="n">
-        <v>70.66412858959329</v>
+        <v>70.66412858959328</v>
       </c>
       <c r="N42" t="n">
-        <v>72.53439780568277</v>
+        <v>72.53439780568276</v>
       </c>
       <c r="O42" t="n">
-        <v>66.35480324735447</v>
+        <v>66.35480324735445</v>
       </c>
       <c r="P42" t="n">
         <v>53.25557954879199</v>
@@ -34232,10 +34232,10 @@
         <v>35.59994458147003</v>
       </c>
       <c r="R42" t="n">
-        <v>17.31558601894207</v>
+        <v>17.31558601894206</v>
       </c>
       <c r="S42" t="n">
-        <v>5.18024207334131</v>
+        <v>5.180242073341308</v>
       </c>
       <c r="T42" t="n">
         <v>1.124118645903345</v>
@@ -34284,40 +34284,40 @@
         <v>2.078794337813875</v>
       </c>
       <c r="I43" t="n">
-        <v>7.031341175345907</v>
+        <v>7.031341175345906</v>
       </c>
       <c r="J43" t="n">
-        <v>16.5304535431273</v>
+        <v>16.53045354312729</v>
       </c>
       <c r="K43" t="n">
         <v>27.16461312603405</v>
       </c>
       <c r="L43" t="n">
-        <v>34.76135235236002</v>
+        <v>34.76135235236001</v>
       </c>
       <c r="M43" t="n">
-        <v>36.65097215431966</v>
+        <v>36.65097215431965</v>
       </c>
       <c r="N43" t="n">
-        <v>35.77949395544066</v>
+        <v>35.77949395544065</v>
       </c>
       <c r="O43" t="n">
-        <v>33.04815374675882</v>
+        <v>33.04815374675881</v>
       </c>
       <c r="P43" t="n">
-        <v>28.2784047753331</v>
+        <v>28.27840477533309</v>
       </c>
       <c r="Q43" t="n">
         <v>19.57850168262126</v>
       </c>
       <c r="R43" t="n">
-        <v>10.51300285769675</v>
+        <v>10.51300285769674</v>
       </c>
       <c r="S43" t="n">
-        <v>4.074691968905108</v>
+        <v>4.074691968905107</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9990115938369331</v>
+        <v>0.9990115938369328</v>
       </c>
       <c r="U43" t="n">
         <v>0.01275333949579065</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5212420162433691</v>
+        <v>0.521242016243369</v>
       </c>
       <c r="H44" t="n">
-        <v>5.338169798852405</v>
+        <v>5.338169798852404</v>
       </c>
       <c r="I44" t="n">
-        <v>20.09518283122251</v>
+        <v>20.0951828312225</v>
       </c>
       <c r="J44" t="n">
-        <v>44.23976457613569</v>
+        <v>44.23976457613568</v>
       </c>
       <c r="K44" t="n">
-        <v>66.30393912371751</v>
+        <v>66.3039391237175</v>
       </c>
       <c r="L44" t="n">
-        <v>82.25589947832555</v>
+        <v>82.25589947832553</v>
       </c>
       <c r="M44" t="n">
-        <v>91.52553718469356</v>
+        <v>91.52553718469353</v>
       </c>
       <c r="N44" t="n">
-        <v>93.00651606334503</v>
+        <v>93.00651606334502</v>
       </c>
       <c r="O44" t="n">
-        <v>87.82341576432503</v>
+        <v>87.82341576432501</v>
       </c>
       <c r="P44" t="n">
-        <v>74.95525348831684</v>
+        <v>74.95525348831683</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.28827378160117</v>
+        <v>56.28827378160116</v>
       </c>
       <c r="R44" t="n">
-        <v>32.74246880284757</v>
+        <v>32.74246880284755</v>
       </c>
       <c r="S44" t="n">
-        <v>11.87780244514579</v>
+        <v>11.87780244514578</v>
       </c>
       <c r="T44" t="n">
-        <v>2.28173692610535</v>
+        <v>2.281736926105349</v>
       </c>
       <c r="U44" t="n">
         <v>0.04169936129946952</v>
@@ -34439,28 +34439,28 @@
         <v>0.2788890655777613</v>
       </c>
       <c r="H45" t="n">
-        <v>2.693481238606275</v>
+        <v>2.693481238606274</v>
       </c>
       <c r="I45" t="n">
-        <v>9.602101599936082</v>
+        <v>9.602101599936081</v>
       </c>
       <c r="J45" t="n">
-        <v>26.34890070881824</v>
+        <v>26.34890070881823</v>
       </c>
       <c r="K45" t="n">
         <v>45.03446810252824</v>
       </c>
       <c r="L45" t="n">
-        <v>60.55439996239946</v>
+        <v>60.55439996239944</v>
       </c>
       <c r="M45" t="n">
-        <v>70.66412858959329</v>
+        <v>70.66412858959328</v>
       </c>
       <c r="N45" t="n">
-        <v>72.53439780568277</v>
+        <v>72.53439780568276</v>
       </c>
       <c r="O45" t="n">
-        <v>66.35480324735447</v>
+        <v>66.35480324735445</v>
       </c>
       <c r="P45" t="n">
         <v>53.25557954879199</v>
@@ -34469,10 +34469,10 @@
         <v>35.59994458147003</v>
       </c>
       <c r="R45" t="n">
-        <v>17.31558601894207</v>
+        <v>17.31558601894206</v>
       </c>
       <c r="S45" t="n">
-        <v>5.18024207334131</v>
+        <v>5.180242073341308</v>
       </c>
       <c r="T45" t="n">
         <v>1.124118645903345</v>
@@ -34521,40 +34521,40 @@
         <v>2.078794337813875</v>
       </c>
       <c r="I46" t="n">
-        <v>7.031341175345907</v>
+        <v>7.031341175345906</v>
       </c>
       <c r="J46" t="n">
-        <v>16.5304535431273</v>
+        <v>16.53045354312729</v>
       </c>
       <c r="K46" t="n">
         <v>27.16461312603405</v>
       </c>
       <c r="L46" t="n">
-        <v>34.76135235236002</v>
+        <v>34.76135235236001</v>
       </c>
       <c r="M46" t="n">
-        <v>36.65097215431966</v>
+        <v>36.65097215431965</v>
       </c>
       <c r="N46" t="n">
-        <v>35.77949395544066</v>
+        <v>35.77949395544065</v>
       </c>
       <c r="O46" t="n">
-        <v>33.04815374675882</v>
+        <v>33.04815374675881</v>
       </c>
       <c r="P46" t="n">
-        <v>28.2784047753331</v>
+        <v>28.27840477533309</v>
       </c>
       <c r="Q46" t="n">
         <v>19.57850168262126</v>
       </c>
       <c r="R46" t="n">
-        <v>10.51300285769675</v>
+        <v>10.51300285769674</v>
       </c>
       <c r="S46" t="n">
-        <v>4.074691968905108</v>
+        <v>4.074691968905107</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9990115938369331</v>
+        <v>0.9990115938369328</v>
       </c>
       <c r="U46" t="n">
         <v>0.01275333949579065</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10.19503020354938</v>
+      </c>
+      <c r="N8" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="N8" t="n">
-        <v>14.254572862262</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>6.786582108236847</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>185.68291159561</v>
       </c>
       <c r="L12" t="n">
-        <v>311.1378387926197</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>416.4167118156254</v>
       </c>
       <c r="N12" t="n">
-        <v>143.9659353244309</v>
+        <v>424.7383810922757</v>
       </c>
       <c r="O12" t="n">
         <v>336.9402769618198</v>
       </c>
       <c r="P12" t="n">
-        <v>253.8318117053547</v>
+        <v>166.5991106372475</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.5980940928821</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.50794786696868</v>
+        <v>49.50794786696869</v>
       </c>
       <c r="K13" t="n">
         <v>134.206542659821</v>
@@ -35586,7 +35586,7 @@
         <v>156.2167659256373</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.63414105839341</v>
+        <v>61.63414105839342</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.58048744157328</v>
+        <v>43.58048744157337</v>
       </c>
       <c r="K14" t="n">
         <v>188.8275634288728</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.81689146284339</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>185.68291159561</v>
       </c>
       <c r="L15" t="n">
-        <v>311.1378387926197</v>
+        <v>311.1378387926196</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4167118156254</v>
+        <v>18.04617195489863</v>
       </c>
       <c r="N15" t="n">
         <v>424.7383810922757</v>
       </c>
       <c r="O15" t="n">
-        <v>158.0695401595465</v>
+        <v>336.9402769618198</v>
       </c>
       <c r="P15" t="n">
-        <v>253.8318117053547</v>
+        <v>253.8318117053546</v>
       </c>
       <c r="Q15" t="n">
         <v>117.5980940928821</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.50794786696863</v>
+        <v>49.50794786696869</v>
       </c>
       <c r="K16" t="n">
         <v>134.206542659821</v>
@@ -35811,19 +35811,19 @@
         <v>194.0388218329896</v>
       </c>
       <c r="M16" t="n">
-        <v>208.6647194028485</v>
+        <v>208.6647194028486</v>
       </c>
       <c r="N16" t="n">
-        <v>211.7928528716988</v>
+        <v>211.7928528716989</v>
       </c>
       <c r="O16" t="n">
         <v>189.4327010283502</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2167659256372</v>
+        <v>156.2167659256373</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.63414105839335</v>
+        <v>61.63414105839342</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>33.81689146284339</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>185.68291159561</v>
       </c>
       <c r="L18" t="n">
         <v>311.1378387926196</v>
@@ -35972,16 +35972,16 @@
         <v>416.4167118156254</v>
       </c>
       <c r="N18" t="n">
-        <v>424.7383810922757</v>
+        <v>26.36784123154907</v>
       </c>
       <c r="O18" t="n">
         <v>336.9402769618198</v>
       </c>
       <c r="P18" t="n">
-        <v>192.5591689959633</v>
+        <v>253.8318117053546</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.5980940928821</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>185.68291159561</v>
       </c>
       <c r="L21" t="n">
-        <v>30.36539302477493</v>
+        <v>311.1378387926196</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4167118156254</v>
+        <v>135.6442660477807</v>
       </c>
       <c r="N21" t="n">
         <v>424.7383810922757</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>33.81689146284339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>311.1378387926196</v>
+        <v>216.048304620385</v>
       </c>
       <c r="M24" t="n">
         <v>416.4167118156254</v>
       </c>
       <c r="N24" t="n">
-        <v>424.7383810922756</v>
+        <v>424.7383810922757</v>
       </c>
       <c r="O24" t="n">
         <v>336.9402769618198</v>
       </c>
       <c r="P24" t="n">
-        <v>192.5591689959631</v>
+        <v>253.8318117053546</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,16 +36598,16 @@
         <v>331.1948757955988</v>
       </c>
       <c r="L26" t="n">
-        <v>429.1186203817823</v>
+        <v>429.1186203817824</v>
       </c>
       <c r="M26" t="n">
-        <v>476.7993469873744</v>
+        <v>476.7993469873745</v>
       </c>
       <c r="N26" t="n">
         <v>466.5368928118583</v>
       </c>
       <c r="O26" t="n">
-        <v>401.8771605081616</v>
+        <v>401.8771605081606</v>
       </c>
       <c r="P26" t="n">
         <v>326.5410514919969</v>
@@ -36616,7 +36616,7 @@
         <v>202.7151288070397</v>
       </c>
       <c r="R26" t="n">
-        <v>33.25895846869641</v>
+        <v>33.25895846869646</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>8.875265199168778</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.3902034082007</v>
+        <v>21.26546860736812</v>
       </c>
       <c r="L28" t="n">
         <v>72.22248258136931</v>
@@ -36765,13 +36765,13 @@
         <v>232.3438259868045</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9836741434558</v>
+        <v>209.9836741434559</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7677390407428</v>
+        <v>176.7677390407429</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.185114173499</v>
+        <v>82.18511417349906</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36993,22 +36993,22 @@
         <v>154.7575157749267</v>
       </c>
       <c r="L31" t="n">
-        <v>72.22248258136931</v>
+        <v>214.5897949480953</v>
       </c>
       <c r="M31" t="n">
-        <v>86.84838015122823</v>
+        <v>107.8498385418203</v>
       </c>
       <c r="N31" t="n">
         <v>89.97651362007855</v>
       </c>
       <c r="O31" t="n">
-        <v>148.8000183605489</v>
+        <v>67.61636177672989</v>
       </c>
       <c r="P31" t="n">
         <v>176.7677390407429</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.18511417349906</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.7910247135784</v>
+        <v>189.7910247135783</v>
       </c>
       <c r="K32" t="n">
-        <v>335.0381007008779</v>
+        <v>335.0381007008778</v>
       </c>
       <c r="L32" t="n">
-        <v>432.9618452870615</v>
+        <v>432.9618452870614</v>
       </c>
       <c r="M32" t="n">
-        <v>480.6425718926536</v>
+        <v>480.6425718926535</v>
       </c>
       <c r="N32" t="n">
-        <v>376.9722244958697</v>
+        <v>470.3801177171374</v>
       </c>
       <c r="O32" t="n">
-        <v>405.7203854134407</v>
+        <v>405.7203854134406</v>
       </c>
       <c r="P32" t="n">
-        <v>330.3842763972761</v>
+        <v>236.9763831760108</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.5583537123189</v>
+        <v>206.5583537123188</v>
       </c>
       <c r="R32" t="n">
-        <v>37.10218337397559</v>
+        <v>37.10218337397548</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.05151586220048898</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>73.90214588735334</v>
       </c>
       <c r="K34" t="n">
-        <v>12.3902034082007</v>
+        <v>158.6007406802057</v>
       </c>
       <c r="L34" t="n">
-        <v>218.4330198533744</v>
+        <v>75.29415851274253</v>
       </c>
       <c r="M34" t="n">
-        <v>233.0589174232333</v>
+        <v>86.84838015122823</v>
       </c>
       <c r="N34" t="n">
-        <v>106.8196531077766</v>
+        <v>89.97651362007855</v>
       </c>
       <c r="O34" t="n">
         <v>67.61636177672989</v>
       </c>
       <c r="P34" t="n">
-        <v>180.610963946022</v>
+        <v>180.6109639460219</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.02833907877807</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.079279144566023</v>
+        <v>7.079279144565994</v>
       </c>
       <c r="J35" t="n">
-        <v>235.7888916230408</v>
+        <v>43.58048744157328</v>
       </c>
       <c r="K35" t="n">
-        <v>323.064286429581</v>
+        <v>188.8275634288728</v>
       </c>
       <c r="L35" t="n">
         <v>286.7513080150564</v>
@@ -37318,16 +37318,16 @@
         <v>324.1695804451324</v>
       </c>
       <c r="O35" t="n">
-        <v>259.5098481414357</v>
+        <v>393.7465711421441</v>
       </c>
       <c r="P35" t="n">
         <v>184.173739125271</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.34781644031379</v>
+        <v>252.5562206217813</v>
       </c>
       <c r="R35" t="n">
-        <v>83.10005028343802</v>
+        <v>83.10005028343799</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.81689146284339</v>
+        <v>33.8168914628438</v>
       </c>
       <c r="K36" t="n">
         <v>185.68291159561</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.17528072819487</v>
+        <v>14.17528072819498</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.079279144565994</v>
+        <v>7.079279144566016</v>
       </c>
       <c r="J38" t="n">
-        <v>177.8172104422804</v>
+        <v>43.58048744157327</v>
       </c>
       <c r="K38" t="n">
         <v>188.8275634288728</v>
@@ -37549,22 +37549,22 @@
         <v>286.7513080150564</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4320346206485</v>
+        <v>334.4320346206484</v>
       </c>
       <c r="N38" t="n">
-        <v>324.1695804451324</v>
+        <v>324.1695804451323</v>
       </c>
       <c r="O38" t="n">
-        <v>259.5098481414357</v>
+        <v>259.5098481414356</v>
       </c>
       <c r="P38" t="n">
-        <v>184.173739125271</v>
+        <v>318.4104621259793</v>
       </c>
       <c r="Q38" t="n">
         <v>252.5562206217813</v>
       </c>
       <c r="R38" t="n">
-        <v>83.10005028343799</v>
+        <v>83.10005028343801</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>185.68291159561</v>
       </c>
       <c r="L39" t="n">
-        <v>311.1378387926187</v>
+        <v>311.1378387926196</v>
       </c>
       <c r="M39" t="n">
         <v>416.4167118156254</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.1247126907837</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>14.17528072819492</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37704,25 +37704,25 @@
         <v>12.3902034082007</v>
       </c>
       <c r="L40" t="n">
-        <v>72.22248258136931</v>
+        <v>72.22248258136929</v>
       </c>
       <c r="M40" t="n">
-        <v>86.84838015122823</v>
+        <v>86.84838015122821</v>
       </c>
       <c r="N40" t="n">
         <v>89.97651362007855</v>
       </c>
       <c r="O40" t="n">
-        <v>67.61636177672989</v>
+        <v>67.61636177672987</v>
       </c>
       <c r="P40" t="n">
-        <v>34.40042667401694</v>
+        <v>34.40042667401693</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.050568037411366</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.079279144565909</v>
+        <v>7.079279144565987</v>
       </c>
       <c r="J41" t="n">
-        <v>43.58048744157328</v>
+        <v>177.8172104422816</v>
       </c>
       <c r="K41" t="n">
         <v>188.8275634288728</v>
       </c>
       <c r="L41" t="n">
-        <v>286.7513080150564</v>
+        <v>478.9597121965239</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4320346206485</v>
+        <v>334.4320346206484</v>
       </c>
       <c r="N41" t="n">
-        <v>324.1695804451324</v>
+        <v>324.1695804451323</v>
       </c>
       <c r="O41" t="n">
-        <v>259.5098481414357</v>
+        <v>259.5098481414356</v>
       </c>
       <c r="P41" t="n">
-        <v>376.3821433067384</v>
+        <v>184.173739125271</v>
       </c>
       <c r="Q41" t="n">
-        <v>194.584539441022</v>
+        <v>60.34781644031377</v>
       </c>
       <c r="R41" t="n">
-        <v>83.10005028343791</v>
+        <v>83.10005028343798</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.81689146284339</v>
+        <v>33.81689146284337</v>
       </c>
       <c r="K42" t="n">
         <v>185.68291159561</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>14.17528072819568</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37941,25 +37941,25 @@
         <v>12.3902034082007</v>
       </c>
       <c r="L43" t="n">
-        <v>72.22248258136931</v>
+        <v>72.22248258136929</v>
       </c>
       <c r="M43" t="n">
-        <v>86.84838015122823</v>
+        <v>86.84838015122821</v>
       </c>
       <c r="N43" t="n">
         <v>89.97651362007855</v>
       </c>
       <c r="O43" t="n">
-        <v>67.61636177672989</v>
+        <v>67.61636177672987</v>
       </c>
       <c r="P43" t="n">
-        <v>34.40042667401694</v>
+        <v>34.40042667401693</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>14.17528072819501</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.07927914456593</v>
       </c>
       <c r="J44" t="n">
-        <v>43.58048744157328</v>
+        <v>43.58048744157327</v>
       </c>
       <c r="K44" t="n">
         <v>188.8275634288728</v>
       </c>
       <c r="L44" t="n">
-        <v>286.7513080150564</v>
+        <v>478.9597121965238</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4320346206485</v>
+        <v>526.6404388021159</v>
       </c>
       <c r="N44" t="n">
-        <v>324.1695804451324</v>
+        <v>324.1695804451323</v>
       </c>
       <c r="O44" t="n">
-        <v>259.5098481414357</v>
+        <v>259.5098481414356</v>
       </c>
       <c r="P44" t="n">
-        <v>325.4897412705456</v>
+        <v>184.173739125271</v>
       </c>
       <c r="Q44" t="n">
-        <v>252.5562206217812</v>
+        <v>60.34781644031377</v>
       </c>
       <c r="R44" t="n">
-        <v>83.10005028343788</v>
+        <v>25.12836910267918</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.81689146284334</v>
+        <v>33.81689146284337</v>
       </c>
       <c r="K45" t="n">
         <v>185.68291159561</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>14.17528072819579</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38178,25 +38178,25 @@
         <v>12.3902034082007</v>
       </c>
       <c r="L46" t="n">
-        <v>72.22248258136931</v>
+        <v>72.22248258136929</v>
       </c>
       <c r="M46" t="n">
-        <v>86.84838015122823</v>
+        <v>86.84838015122821</v>
       </c>
       <c r="N46" t="n">
         <v>89.97651362007855</v>
       </c>
       <c r="O46" t="n">
-        <v>67.61636177672989</v>
+        <v>67.61636177672987</v>
       </c>
       <c r="P46" t="n">
-        <v>34.40042667401694</v>
+        <v>34.40042667401693</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>14.17528072819541</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
